--- a/exp2/case02/report/motivation/satisfaction/MeasurementModel.xlsx
+++ b/exp2/case02/report/motivation/satisfaction/MeasurementModel.xlsx
@@ -110,13 +110,13 @@
     <t>Item residuals</t>
   </si>
   <si>
-    <t>Item09S</t>
-  </si>
-  <si>
     <t>Item11S</t>
   </si>
   <si>
-    <t>Item14S</t>
+    <t>Item24S</t>
+  </si>
+  <si>
+    <t>Item25S</t>
   </si>
   <si>
     <t>Wright Map for Item Response Models</t>
@@ -2215,16 +2215,16 @@
         <v>3.0</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>547.5183721052117</v>
+        <v>572.2950226340987</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>-273.75918605260586</v>
+        <v>-286.14751131704935</v>
       </c>
       <c r="D6" t="n" s="34">
         <v>58.0</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>0.8567452796352154</v>
+        <v>0.7614846269953203</v>
       </c>
       <c r="F6" t="n" s="36">
         <v>21.0</v>
@@ -2261,13 +2261,13 @@
     </row>
     <row r="11">
       <c r="A11" t="n" s="56">
-        <v>0.07029317351491354</v>
+        <v>0.13746662552900432</v>
       </c>
       <c r="B11" t="n" s="57">
-        <v>0.10543976027237034</v>
+        <v>0.20619993829350647</v>
       </c>
       <c r="C11" t="n" s="58">
-        <v>1.0</v>
+        <v>0.3786299873690705</v>
       </c>
     </row>
     <row r="12">
@@ -2298,13 +2298,13 @@
     </row>
     <row r="16">
       <c r="A16" t="n" s="77">
-        <v>50.910324096780016</v>
+        <v>95.75832268540537</v>
       </c>
       <c r="B16" t="n" s="78">
         <v>3.0</v>
       </c>
       <c r="C16" t="n" s="79">
-        <v>1.0</v>
+        <v>2.2127253976200745E-4</v>
       </c>
     </row>
     <row r="17">
@@ -2335,13 +2335,13 @@
     </row>
     <row r="21">
       <c r="A21" t="n" s="98">
-        <v>12.949860514001355</v>
+        <v>25.712405225451906</v>
       </c>
       <c r="B21" t="n" s="99">
-        <v>0.03263069054568365</v>
+        <v>0.07168164788454451</v>
       </c>
       <c r="C21" t="n" s="100">
-        <v>0.035288477401518754</v>
+        <v>0.08676823582367178</v>
       </c>
     </row>
     <row r="22">
@@ -2402,13 +2402,13 @@
         <v>49.0</v>
       </c>
       <c r="F26" t="n" s="124">
-        <v>50.910324096780016</v>
+        <v>55.816944266499405</v>
       </c>
       <c r="G26" t="n" s="125">
-        <v>0.3983142690956972</v>
+        <v>0.2340085693978371</v>
       </c>
       <c r="H26" t="n" s="126">
-        <v>1.0</v>
+        <v>0.2340085693978371</v>
       </c>
     </row>
     <row r="27">
@@ -2428,13 +2428,13 @@
         <v>49.0</v>
       </c>
       <c r="F27" t="n" s="124">
-        <v>49.082663419743156</v>
+        <v>80.44185808153001</v>
       </c>
       <c r="G27" t="n" s="125">
-        <v>0.46981116809115475</v>
+        <v>0.003084360148305265</v>
       </c>
       <c r="H27" t="n" s="126">
-        <v>1.0</v>
+        <v>0.00616872029661053</v>
       </c>
     </row>
     <row r="28">
@@ -2454,13 +2454,13 @@
         <v>49.0</v>
       </c>
       <c r="F28" t="n" s="124">
-        <v>40.53160179798241</v>
+        <v>95.75832268540537</v>
       </c>
       <c r="G28" t="n" s="125">
-        <v>0.8000903391195711</v>
+        <v>7.375751325400248E-5</v>
       </c>
       <c r="H28" t="n" s="126">
-        <v>1.0</v>
+        <v>2.2127253976200745E-4</v>
       </c>
     </row>
     <row r="29">
@@ -2491,640 +2491,640 @@
     </row>
     <row r="33">
       <c r="A33" t="n" s="145">
-        <v>-0.5975206574504845</v>
+        <v>-1.7720724232166498</v>
       </c>
       <c r="B33" t="n" s="146">
-        <v>-0.2691198276041731</v>
+        <v>-1.5015159823643005</v>
       </c>
       <c r="C33" t="n" s="147">
-        <v>-0.10532952090183434</v>
+        <v>2.6461056120053</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n" s="145">
-        <v>0.14701015302947873</v>
+        <v>-0.18792529265193725</v>
       </c>
       <c r="B34" t="n" s="146">
-        <v>0.35776668986748383</v>
+        <v>0.2565579156276474</v>
       </c>
       <c r="C34" t="n" s="147">
-        <v>-0.4822926913702785</v>
+        <v>0.36447858427631097</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n" s="145">
-        <v>-0.4237025663491103</v>
+        <v>-0.47072895434048956</v>
       </c>
       <c r="B35" t="n" s="146">
-        <v>-0.23061170686338883</v>
+        <v>0.031028038703046157</v>
       </c>
       <c r="C35" t="n" s="147">
-        <v>0.9358973691276091</v>
+        <v>1.1258292929689189</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n" s="145">
-        <v>0.14701015302947873</v>
+        <v>0.37695509487441203</v>
       </c>
       <c r="B36" t="n" s="146">
-        <v>0.35776668986748383</v>
+        <v>-0.2630727555612573</v>
       </c>
       <c r="C36" t="n" s="147">
-        <v>-0.4822926913702785</v>
+        <v>-0.13507694002538617</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n" s="145">
-        <v>-0.30529039533606506</v>
+        <v>0.22792757678335018</v>
       </c>
       <c r="B37" t="n" s="146">
-        <v>0.762319767302901</v>
+        <v>-0.5015159823642987</v>
       </c>
       <c r="C37" t="n" s="147">
-        <v>-1.047743480031596</v>
+        <v>-0.3538943879946972</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n" s="145">
-        <v>0.9937860993927421</v>
+        <v>0.24913396382342423</v>
       </c>
       <c r="B38" t="n" s="146">
-        <v>0.1982788482910749</v>
+        <v>-0.18056284419466007</v>
       </c>
       <c r="C38" t="n" s="147">
-        <v>-0.6497297993372859</v>
+        <v>0.8993682765137709</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n" s="145">
-        <v>-0.5488967998192162</v>
+        <v>2.22792757678335</v>
       </c>
       <c r="B39" t="n" s="146">
-        <v>1.642016596138002</v>
+        <v>-1.5015159823642996</v>
       </c>
       <c r="C39" t="n" s="147">
-        <v>-1.2001667572445367</v>
+        <v>-1.3538943879946999</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n" s="145">
-        <v>0.14701015302947873</v>
+        <v>0.37695509487441203</v>
       </c>
       <c r="B40" t="n" s="146">
-        <v>0.35776668986748383</v>
+        <v>-0.2630727555612573</v>
       </c>
       <c r="C40" t="n" s="147">
-        <v>-0.4822926913702785</v>
+        <v>-0.13507694002538617</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n" s="145">
-        <v>-0.5972441064434011</v>
+        <v>-0.9050849104883927</v>
       </c>
       <c r="B41" t="n" s="146">
-        <v>0.47085138747899213</v>
+        <v>0.4928138983013639</v>
       </c>
       <c r="C41" t="n" s="147">
-        <v>-0.34844279991106797</v>
+        <v>0.6117966805590944</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n" s="145">
-        <v>-0.8529898469705204</v>
+        <v>1.514554929532868</v>
       </c>
       <c r="B42" t="n" s="146">
-        <v>0.3577666898674847</v>
+        <v>-1.2416713763315332</v>
       </c>
       <c r="C42" t="n" s="147">
-        <v>0.5177073086297215</v>
+        <v>-1.088169429978315</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n" s="145">
-        <v>0.09033638171173841</v>
+        <v>-0.7720724232166503</v>
       </c>
       <c r="B43" t="n" s="146">
-        <v>-0.8081852481874856</v>
+        <v>0.49848401763570127</v>
       </c>
       <c r="C43" t="n" s="147">
-        <v>0.3613512971834476</v>
+        <v>-0.3538943879946981</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n" s="145">
-        <v>0.6763044098083375</v>
+        <v>0.24913396382342512</v>
       </c>
       <c r="B44" t="n" s="146">
-        <v>-0.06387873408705591</v>
+        <v>0.819437155805339</v>
       </c>
       <c r="C44" t="n" s="147">
-        <v>0.0697505934258098</v>
+        <v>-0.10063172348622906</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n" s="145">
-        <v>-0.2312753676612953</v>
+        <v>0.22792757678335018</v>
       </c>
       <c r="B45" t="n" s="146">
-        <v>-0.08179884459823494</v>
+        <v>-0.5015159823642987</v>
       </c>
       <c r="C45" t="n" s="147">
-        <v>0.07917034685033908</v>
+        <v>-0.3538943879946972</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n" s="145">
-        <v>0.4511032001807833</v>
+        <v>-2.1879252926519372</v>
       </c>
       <c r="B46" t="n" s="146">
-        <v>-1.357983403861999</v>
+        <v>1.2565579156276474</v>
       </c>
       <c r="C46" t="n" s="147">
-        <v>0.7998332427554633</v>
+        <v>1.3644785842763092</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n" s="145">
-        <v>0.8577298902563921</v>
+        <v>-0.34071447552033707</v>
       </c>
       <c r="B47" t="n" s="146">
-        <v>-0.9347771014483408</v>
+        <v>-0.012842192021899734</v>
       </c>
       <c r="C47" t="n" s="147">
-        <v>0.22951060990354488</v>
+        <v>0.12249742166417654</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n" s="145">
-        <v>0.4511032001807833</v>
+        <v>-0.057178305539659746</v>
       </c>
       <c r="B48" t="n" s="146">
-        <v>-0.3579834038619989</v>
+        <v>0.2415246129588109</v>
       </c>
       <c r="C48" t="n" s="147">
-        <v>-0.2001667572445367</v>
+        <v>-0.6168069058947419</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n" s="145">
-        <v>-0.2579439248347435</v>
+        <v>-0.91840973177109</v>
       </c>
       <c r="B49" t="n" s="146">
-        <v>-0.6018117618173948</v>
+        <v>-1.5806683100414256</v>
       </c>
       <c r="C49" t="n" s="147">
-        <v>-0.510477573861476</v>
+        <v>0.5735708040839764</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n" s="145">
-        <v>-1.006213900607258</v>
+        <v>0.5292710456595104</v>
       </c>
       <c r="B50" t="n" s="146">
-        <v>0.1982788482910749</v>
+        <v>1.0310280387030453</v>
       </c>
       <c r="C50" t="n" s="147">
-        <v>1.350270200662715</v>
+        <v>-0.8741707070310811</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n" s="145">
-        <v>-0.4237025663491103</v>
+        <v>-0.7508660361765749</v>
       </c>
       <c r="B51" t="n" s="146">
-        <v>-0.23061170686338883</v>
+        <v>0.819437155805339</v>
       </c>
       <c r="C51" t="n" s="147">
-        <v>0.9358973691276091</v>
+        <v>0.8993682765137709</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n" s="145">
-        <v>0.6393360264111694</v>
+        <v>0.7197248564812977</v>
       </c>
       <c r="B52" t="n" s="146">
-        <v>0.2916231208542861</v>
+        <v>0.45086895936230587</v>
       </c>
       <c r="C52" t="n" s="147">
-        <v>0.3445417922781937</v>
+        <v>0.4987627266236876</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n" s="145">
-        <v>0.6947096046639349</v>
+        <v>-1.6524906489483335</v>
       </c>
       <c r="B53" t="n" s="146">
-        <v>-2.2376802326970986</v>
+        <v>0.5597295712862729</v>
       </c>
       <c r="C53" t="n" s="147">
-        <v>0.9522565199684041</v>
+        <v>-0.2734502881618428</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n" s="145">
-        <v>0.14701015302947829</v>
+        <v>0.7994628469411289</v>
       </c>
       <c r="B54" t="n" s="146">
-        <v>-0.6422333101325179</v>
+        <v>-1.9788323524343125</v>
       </c>
       <c r="C54" t="n" s="147">
-        <v>0.5177073086297215</v>
+        <v>0.1802636960528572</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n" s="145">
-        <v>1.0903363817117389</v>
+        <v>-1.0571783055396606</v>
       </c>
       <c r="B55" t="n" s="146">
-        <v>-0.8081852481874847</v>
+        <v>-0.75847538704119</v>
       </c>
       <c r="C55" t="n" s="147">
-        <v>-0.6386487028165524</v>
+        <v>1.383193094105259</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n" s="145">
-        <v>0.6393360264111694</v>
+        <v>0.7197248564812977</v>
       </c>
       <c r="B56" t="n" s="146">
-        <v>0.2916231208542861</v>
+        <v>0.45086895936230587</v>
       </c>
       <c r="C56" t="n" s="147">
-        <v>0.3445417922781937</v>
+        <v>0.4987627266236876</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n" s="145">
-        <v>0.14701015302947829</v>
+        <v>-0.6230449051255897</v>
       </c>
       <c r="B57" t="n" s="146">
-        <v>-0.6422333101325179</v>
+        <v>0.7369272444387418</v>
       </c>
       <c r="C57" t="n" s="147">
-        <v>0.5177073086297215</v>
+        <v>-0.13507694002538617</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n" s="145">
-        <v>-1.4237025663491094</v>
+        <v>0.5292710456595122</v>
       </c>
       <c r="B58" t="n" s="146">
-        <v>0.7693882931366121</v>
+        <v>0.03102803870304438</v>
       </c>
       <c r="C58" t="n" s="147">
-        <v>0.9358973691276082</v>
+        <v>0.12582929296891887</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n" s="145">
-        <v>0.14701015302947873</v>
+        <v>0.37695509487441203</v>
       </c>
       <c r="B59" t="n" s="146">
-        <v>0.35776668986748383</v>
+        <v>-0.2630727555612573</v>
       </c>
       <c r="C59" t="n" s="147">
-        <v>-0.4822926913702785</v>
+        <v>-0.13507694002538617</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n" s="145">
-        <v>0.6393360264111694</v>
+        <v>0.7197248564812977</v>
       </c>
       <c r="B60" t="n" s="146">
-        <v>0.2916231208542861</v>
+        <v>0.45086895936230587</v>
       </c>
       <c r="C60" t="n" s="147">
-        <v>0.3445417922781937</v>
+        <v>0.4987627266236876</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n" s="145">
-        <v>-1.3236955901916634</v>
+        <v>1.2491339638234242</v>
       </c>
       <c r="B61" t="n" s="146">
-        <v>0.936121265912945</v>
+        <v>0.8194371558053399</v>
       </c>
       <c r="C61" t="n" s="147">
-        <v>1.0697505934258098</v>
+        <v>-1.1006317234862308</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n" s="145">
-        <v>0.14701015302947829</v>
+        <v>-0.6230449051255897</v>
       </c>
       <c r="B62" t="n" s="146">
-        <v>-0.6422333101325179</v>
+        <v>0.7369272444387418</v>
       </c>
       <c r="C62" t="n" s="147">
-        <v>0.5177073086297215</v>
+        <v>-0.13507694002538617</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n" s="145">
-        <v>0.14701015302947873</v>
+        <v>0.6592855244796629</v>
       </c>
       <c r="B63" t="n" s="146">
-        <v>0.35776668986748383</v>
+        <v>-0.012842192021899734</v>
       </c>
       <c r="C63" t="n" s="147">
-        <v>-0.4822926913702785</v>
+        <v>-0.8775025783358243</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n" s="145">
-        <v>2.1949011808317884</v>
+        <v>-1.145129854838021</v>
       </c>
       <c r="B64" t="n" s="146">
-        <v>-1.6058136792699123</v>
+        <v>-1.8712572496110838</v>
       </c>
       <c r="C64" t="n" s="147">
-        <v>-1.4215045040603633</v>
+        <v>1.2922101431117285</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n" s="145">
-        <v>-1.5488967998192167</v>
+        <v>0.7994628469411289</v>
       </c>
       <c r="B65" t="n" s="146">
-        <v>-0.357983403861998</v>
+        <v>-0.9788323524343112</v>
       </c>
       <c r="C65" t="n" s="147">
-        <v>1.7998332427554633</v>
+        <v>-0.8197363039471419</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n" s="145">
-        <v>-0.0405642473775778</v>
+        <v>0.34750935105166647</v>
       </c>
       <c r="B66" t="n" s="146">
-        <v>0.0700294774415382</v>
+        <v>0.5597295712862729</v>
       </c>
       <c r="C66" t="n" s="147">
-        <v>-0.7375634707669549</v>
+        <v>-2.273450288161843</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n" s="145">
-        <v>0.09033638171173886</v>
+        <v>0.6592855244796629</v>
       </c>
       <c r="B67" t="n" s="146">
-        <v>1.1918147518125153</v>
+        <v>-1.0128421920218997</v>
       </c>
       <c r="C67" t="n" s="147">
-        <v>-1.6386487028165524</v>
+        <v>0.12249742166417565</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n" s="145">
-        <v>-1.5488967998192167</v>
+        <v>-1.1879252926519364</v>
       </c>
       <c r="B68" t="n" s="146">
-        <v>-0.357983403861998</v>
+        <v>0.2565579156276483</v>
       </c>
       <c r="C68" t="n" s="147">
-        <v>1.7998332427554633</v>
+        <v>1.3644785842763092</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n" s="145">
-        <v>-0.2312753676612953</v>
+        <v>-0.34071447552033707</v>
       </c>
       <c r="B69" t="n" s="146">
-        <v>-0.08179884459823494</v>
+        <v>-0.012842192021899734</v>
       </c>
       <c r="C69" t="n" s="147">
-        <v>0.07917034685033908</v>
+        <v>0.12249742166417654</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n" s="145">
-        <v>2.2917074642995168</v>
+        <v>-0.9050849104883927</v>
       </c>
       <c r="B70" t="n" s="146">
-        <v>-1.5220804136687756</v>
+        <v>0.4928138983013639</v>
       </c>
       <c r="C70" t="n" s="147">
-        <v>-0.3590851347165449</v>
+        <v>0.6117966805590944</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n" s="145">
-        <v>-1.006213900607258</v>
+        <v>0.7197248564812977</v>
       </c>
       <c r="B71" t="n" s="146">
-        <v>1.1982788482910767</v>
+        <v>0.45086895936230587</v>
       </c>
       <c r="C71" t="n" s="147">
-        <v>0.3502702006627141</v>
+        <v>0.4987627266236876</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n" s="145">
-        <v>-0.7082925357004815</v>
+        <v>0.5292710456595122</v>
       </c>
       <c r="B72" t="n" s="146">
-        <v>0.47791958633122533</v>
+        <v>0.03102803870304438</v>
       </c>
       <c r="C72" t="n" s="147">
-        <v>0.6409148652834578</v>
+        <v>0.12582929296891887</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n" s="145">
-        <v>-0.14227010974360876</v>
+        <v>-0.7508660361765749</v>
       </c>
       <c r="B73" t="n" s="146">
-        <v>0.06522289855166008</v>
+        <v>0.819437155805339</v>
       </c>
       <c r="C73" t="n" s="147">
-        <v>0.229510609903544</v>
+        <v>0.8993682765137709</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n" s="145">
-        <v>1.402755893556599</v>
+        <v>0.34750935105166647</v>
       </c>
       <c r="B74" t="n" s="146">
-        <v>-0.529148612521007</v>
+        <v>-1.4402704287137271</v>
       </c>
       <c r="C74" t="n" s="147">
-        <v>-1.348442799911068</v>
+        <v>-0.27345028816184236</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n" s="145">
-        <v>0.6393360264111694</v>
+        <v>0.7197248564812977</v>
       </c>
       <c r="B75" t="n" s="146">
-        <v>0.2916231208542861</v>
+        <v>0.45086895936230587</v>
       </c>
       <c r="C75" t="n" s="147">
-        <v>0.3445417922781937</v>
+        <v>0.4987627266236876</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n" s="145">
-        <v>0.14701015302947917</v>
+        <v>1.0949150895116082</v>
       </c>
       <c r="B76" t="n" s="146">
-        <v>1.3577666898674856</v>
+        <v>-1.507186101698636</v>
       </c>
       <c r="C76" t="n" s="147">
-        <v>-1.4822926913702785</v>
+        <v>0.6117966805590971</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n" s="145">
-        <v>-0.30529039533606506</v>
+        <v>1.347509351051666</v>
       </c>
       <c r="B77" t="n" s="146">
-        <v>0.762319767302901</v>
+        <v>-1.4402704287137276</v>
       </c>
       <c r="C77" t="n" s="147">
-        <v>-1.047743480031596</v>
+        <v>-1.2734502881618428</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n" s="145">
-        <v>-0.14227010974360788</v>
+        <v>-0.9050849104883927</v>
       </c>
       <c r="B78" t="n" s="146">
-        <v>-0.9347771014483399</v>
+        <v>0.4928138983013639</v>
       </c>
       <c r="C78" t="n" s="147">
-        <v>1.229510609903544</v>
+        <v>0.6117966805590944</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n" s="145">
-        <v>-0.4237025663491094</v>
+        <v>0.5292710456595122</v>
       </c>
       <c r="B79" t="n" s="146">
-        <v>0.7693882931366129</v>
+        <v>0.03102803870304438</v>
       </c>
       <c r="C79" t="n" s="147">
-        <v>-0.06410263087239265</v>
+        <v>0.12582929296891887</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n" s="145">
-        <v>0.6763044098083375</v>
+        <v>0.5292710456595122</v>
       </c>
       <c r="B80" t="n" s="146">
-        <v>-0.06387873408705591</v>
+        <v>0.03102803870304438</v>
       </c>
       <c r="C80" t="n" s="147">
-        <v>0.0697505934258098</v>
+        <v>0.12582929296891887</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n" s="145">
-        <v>0.4511032001807833</v>
+        <v>-0.057178305539659746</v>
       </c>
       <c r="B81" t="n" s="146">
-        <v>-0.3579834038619989</v>
+        <v>0.2415246129588109</v>
       </c>
       <c r="C81" t="n" s="147">
-        <v>-0.2001667572445367</v>
+        <v>-0.6168069058947419</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n" s="145">
-        <v>0.5762974336508906</v>
+        <v>-0.7508660361765749</v>
       </c>
       <c r="B82" t="n" s="146">
-        <v>-0.23061170686338794</v>
+        <v>0.819437155805339</v>
       </c>
       <c r="C82" t="n" s="147">
-        <v>-0.06410263087238999</v>
+        <v>0.8993682765137709</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n" s="145">
-        <v>-1.3052903953360655</v>
+        <v>-1.340714475520337</v>
       </c>
       <c r="B83" t="n" s="146">
-        <v>-0.23768023269709948</v>
+        <v>0.9871578079780994</v>
       </c>
       <c r="C83" t="n" s="147">
-        <v>0.9522565199684037</v>
+        <v>0.12249742166417654</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n" s="145">
-        <v>0.29170746429951677</v>
+        <v>1.659285524479663</v>
       </c>
       <c r="B84" t="n" s="146">
-        <v>0.47791958633122533</v>
+        <v>1.9871578079781003</v>
       </c>
       <c r="C84" t="n" s="147">
-        <v>-0.35908513471654313</v>
+        <v>-3.8775025783358235</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n" s="145">
-        <v>-1.0405642473775782</v>
+        <v>-0.3407144755203362</v>
       </c>
       <c r="B85" t="n" s="146">
-        <v>1.0700294774415382</v>
+        <v>0.9871578079781003</v>
       </c>
       <c r="C85" t="n" s="147">
-        <v>-0.7375634707669554</v>
+        <v>-0.8775025783358235</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n" s="145">
-        <v>-0.5972441064434011</v>
+        <v>0.22792757678335018</v>
       </c>
       <c r="B86" t="n" s="146">
-        <v>0.47085138747899213</v>
+        <v>-0.5015159823642987</v>
       </c>
       <c r="C86" t="n" s="147">
-        <v>-0.34844279991106797</v>
+        <v>-0.3538943879946972</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n" s="145">
-        <v>-0.14227010974360876</v>
+        <v>0.37695509487441203</v>
       </c>
       <c r="B87" t="n" s="146">
-        <v>0.06522289855166008</v>
+        <v>-0.2630727555612573</v>
       </c>
       <c r="C87" t="n" s="147">
-        <v>0.229510609903544</v>
+        <v>-0.13507694002538617</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n" s="145">
-        <v>0.5762974336508906</v>
+        <v>0.09491508951160732</v>
       </c>
       <c r="B88" t="n" s="146">
-        <v>-0.23061170686338794</v>
+        <v>-0.5071861016986361</v>
       </c>
       <c r="C88" t="n" s="147">
-        <v>-0.06410263087238999</v>
+        <v>0.6117966805590971</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n" s="145">
-        <v>-0.30529039533606506</v>
+        <v>1.0776629933659998</v>
       </c>
       <c r="B89" t="n" s="146">
-        <v>0.762319767302901</v>
+        <v>-0.7127417385598749</v>
       </c>
       <c r="C89" t="n" s="147">
-        <v>-1.047743480031596</v>
+        <v>-1.5489465815612937</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n" s="145">
-        <v>-0.2579439248347435</v>
+        <v>-2.77207242321665</v>
       </c>
       <c r="B90" t="n" s="146">
-        <v>-0.6018117618173948</v>
+        <v>2.4984840176357004</v>
       </c>
       <c r="C90" t="n" s="147">
-        <v>-0.510477573861476</v>
+        <v>-0.3538943879946972</v>
       </c>
     </row>
     <row r="91">
@@ -3426,31 +3426,31 @@
         <v>58.0</v>
       </c>
       <c r="C6" t="n" s="192">
-        <v>3.7586206896551726</v>
+        <v>4.5344827586206895</v>
       </c>
       <c r="D6" t="n" s="193">
-        <v>-1.1728953867921257</v>
+        <v>-1.3863360324854723</v>
       </c>
       <c r="E6" t="n" s="194">
-        <v>-10.10501329899204</v>
+        <v>-7.70848050785079</v>
       </c>
       <c r="F6" t="n" s="195">
-        <v>-12.085162568774699</v>
+        <v>-8.53008137440433</v>
       </c>
       <c r="G6" t="n" s="196">
-        <v>-12.973941027194023</v>
+        <v>-10.314637933493637</v>
       </c>
       <c r="H6" t="n" s="197">
-        <v>-14.061729594832341</v>
+        <v>-11.448788373540193</v>
       </c>
       <c r="I6" t="n" s="198">
-        <v>-12.770144486983048</v>
+        <v>-11.363779060050858</v>
       </c>
       <c r="J6" t="n" s="199">
-        <v>-10.991814808651814</v>
+        <v>-10.874390463513407</v>
       </c>
       <c r="K6" t="n" s="200">
-        <v>-8.21026770754488</v>
+        <v>-9.704352227398306</v>
       </c>
       <c r="L6" t="n" s="201">
         <v>1.0</v>
@@ -3482,31 +3482,31 @@
         <v>58.0</v>
       </c>
       <c r="C7" t="n" s="192">
-        <v>4.5344827586206895</v>
+        <v>5.137931034482759</v>
       </c>
       <c r="D7" t="n" s="193">
-        <v>-2.1019426005380004</v>
+        <v>-1.8897929514347516</v>
       </c>
       <c r="E7" t="n" s="194">
-        <v>-11.034060512737915</v>
+        <v>-8.21193742680007</v>
       </c>
       <c r="F7" t="n" s="195">
-        <v>-13.943256996266449</v>
+        <v>-9.53699521230289</v>
       </c>
       <c r="G7" t="n" s="196">
-        <v>-15.761082668431648</v>
+        <v>-11.825008690341475</v>
       </c>
       <c r="H7" t="n" s="197">
-        <v>-17.77791844981584</v>
+        <v>-13.46261604933731</v>
       </c>
       <c r="I7" t="n" s="198">
-        <v>-17.41538055571242</v>
+        <v>-13.881063654797254</v>
       </c>
       <c r="J7" t="n" s="199">
-        <v>-16.56609809112706</v>
+        <v>-13.895131977209079</v>
       </c>
       <c r="K7" t="n" s="200">
-        <v>-14.713598203766002</v>
+        <v>-13.228550660043261</v>
       </c>
       <c r="L7" t="n" s="201">
         <v>1.0</v>
@@ -3538,31 +3538,31 @@
         <v>58.0</v>
       </c>
       <c r="C8" t="n" s="192">
-        <v>4.379310344827586</v>
+        <v>5.017241379310345</v>
       </c>
       <c r="D8" t="n" s="193">
-        <v>-1.9138822007479088</v>
+        <v>-1.7836829226476616</v>
       </c>
       <c r="E8" t="n" s="194">
-        <v>-10.846000112947822</v>
+        <v>-8.105827398012979</v>
       </c>
       <c r="F8" t="n" s="195">
-        <v>-13.567136196686265</v>
+        <v>-9.324775154728709</v>
       </c>
       <c r="G8" t="n" s="196">
-        <v>-15.196901469061373</v>
+        <v>-11.506678603980204</v>
       </c>
       <c r="H8" t="n" s="197">
-        <v>-17.025676850655472</v>
+        <v>-13.038175934188951</v>
       </c>
       <c r="I8" t="n" s="198">
-        <v>-16.475078556761964</v>
+        <v>-13.350513510861804</v>
       </c>
       <c r="J8" t="n" s="199">
-        <v>-15.43773569238651</v>
+        <v>-13.258471804486536</v>
       </c>
       <c r="K8" t="n" s="200">
-        <v>-13.397175405235362</v>
+        <v>-12.48578045853363</v>
       </c>
       <c r="L8" t="n" s="201">
         <v>1.0</v>
@@ -3630,25 +3630,25 @@
         <v>31</v>
       </c>
       <c r="B13" t="n" s="226">
-        <v>-10.105682373046875</v>
+        <v>-7.709930419921875</v>
       </c>
       <c r="C13" t="n" s="227">
-        <v>-2.266204833984375</v>
+        <v>-1.781158447265625</v>
       </c>
       <c r="D13" t="n" s="228">
-        <v>-1.194488525390625</v>
+        <v>-1.416229248046875</v>
       </c>
       <c r="E13" t="n" s="229">
-        <v>-0.587860107421875</v>
+        <v>-0.901885986328125</v>
       </c>
       <c r="F13" t="n" s="230">
-        <v>0.997833251953125</v>
+        <v>-0.088165283203125</v>
       </c>
       <c r="G13" t="n" s="231">
-        <v>1.891204833984375</v>
+        <v>0.589508056640625</v>
       </c>
       <c r="H13" t="n" s="232">
-        <v>3.062347412109375</v>
+        <v>1.534332275390625</v>
       </c>
     </row>
     <row r="14">
@@ -3656,25 +3656,25 @@
         <v>32</v>
       </c>
       <c r="B14" t="n" s="226">
-        <v>-11.034942626953125</v>
+        <v>-8.213470458984375</v>
       </c>
       <c r="C14" t="n" s="227">
-        <v>-3.195465087890625</v>
+        <v>-2.284881591796875</v>
       </c>
       <c r="D14" t="n" s="228">
-        <v>-2.123931884765625</v>
+        <v>-1.919952392578125</v>
       </c>
       <c r="E14" t="n" s="229">
-        <v>-1.517120361328125</v>
+        <v>-1.405609130859375</v>
       </c>
       <c r="F14" t="n" s="230">
-        <v>0.068389892578125</v>
+        <v>-0.591888427734375</v>
       </c>
       <c r="G14" t="n" s="231">
-        <v>0.961761474609375</v>
+        <v>0.085968017578125</v>
       </c>
       <c r="H14" t="n" s="232">
-        <v>2.133087158203125</v>
+        <v>1.030792236328125</v>
       </c>
     </row>
     <row r="15">
@@ -3682,25 +3682,25 @@
         <v>33</v>
       </c>
       <c r="B15" t="n" s="226">
-        <v>-10.846893310546875</v>
+        <v>-8.107452392578125</v>
       </c>
       <c r="C15" t="n" s="227">
-        <v>-3.007415771484375</v>
+        <v>-2.178863525390625</v>
       </c>
       <c r="D15" t="n" s="228">
-        <v>-1.935699462890625</v>
+        <v>-1.813751220703125</v>
       </c>
       <c r="E15" t="n" s="229">
-        <v>-1.329071044921875</v>
+        <v>-1.299407958984375</v>
       </c>
       <c r="F15" t="n" s="230">
-        <v>0.256622314453125</v>
+        <v>-0.485687255859375</v>
       </c>
       <c r="G15" t="n" s="231">
-        <v>1.149993896484375</v>
+        <v>0.191986083984375</v>
       </c>
       <c r="H15" t="n" s="232">
-        <v>2.321136474609375</v>
+        <v>1.136810302734375</v>
       </c>
     </row>
     <row r="16">
@@ -3729,7 +3729,7 @@
         <v>31</v>
       </c>
       <c r="B20" t="n" s="251">
-        <v>-0.361871293042634</v>
+        <v>-0.8000039571033792</v>
       </c>
     </row>
     <row r="21">
@@ -3737,7 +3737,7 @@
         <v>32</v>
       </c>
       <c r="B21" t="n" s="251">
-        <v>-1.298657994125888</v>
+        <v>-1.307870428650434</v>
       </c>
     </row>
     <row r="22">
@@ -3745,7 +3745,7 @@
         <v>33</v>
       </c>
       <c r="B22" t="n" s="251">
-        <v>-1.111842860854072</v>
+        <v>-1.2068675704955252</v>
       </c>
     </row>
     <row r="23">
@@ -3797,25 +3797,25 @@
         <v>31</v>
       </c>
       <c r="B27" t="n" s="271">
-        <v>1.093375702219392</v>
+        <v>1.0305721839176376</v>
       </c>
       <c r="C27" t="n" s="272">
-        <v>0.4535140570214431</v>
+        <v>0.18772329105925242</v>
       </c>
       <c r="D27" t="n" s="273">
-        <v>0.650178623522139</v>
+        <v>0.8510935712283767</v>
       </c>
       <c r="E27" t="n" s="274">
         <v>1.0</v>
       </c>
       <c r="F27" t="n" s="275">
-        <v>1.0587708129118207</v>
+        <v>1.0139722619120823</v>
       </c>
       <c r="G27" t="n" s="276">
-        <v>0.3295242836875954</v>
+        <v>0.11012835443863762</v>
       </c>
       <c r="H27" t="n" s="277">
-        <v>0.7417594422104626</v>
+        <v>0.9123075813316159</v>
       </c>
       <c r="I27" t="n" s="278">
         <v>1.0</v>
@@ -3826,25 +3826,25 @@
         <v>32</v>
       </c>
       <c r="B28" t="n" s="271">
-        <v>0.9234884365600626</v>
+        <v>0.8993996006725842</v>
       </c>
       <c r="C28" t="n" s="272">
-        <v>-0.3505250726020108</v>
+        <v>-0.4927226825214972</v>
       </c>
       <c r="D28" t="n" s="273">
-        <v>0.7259446770229578</v>
+        <v>0.6222085483047968</v>
       </c>
       <c r="E28" t="n" s="274">
         <v>1.0</v>
       </c>
       <c r="F28" t="n" s="275">
-        <v>0.9640888894173008</v>
+        <v>0.9774327859359092</v>
       </c>
       <c r="G28" t="n" s="276">
-        <v>-0.16410287109760147</v>
+        <v>-0.09315128034337893</v>
       </c>
       <c r="H28" t="n" s="277">
-        <v>0.8696501616468195</v>
+        <v>0.9257833786776699</v>
       </c>
       <c r="I28" t="n" s="278">
         <v>1.0</v>
@@ -3855,25 +3855,25 @@
         <v>33</v>
       </c>
       <c r="B29" t="n" s="271">
-        <v>1.0159487635799274</v>
+        <v>1.069710923840161</v>
       </c>
       <c r="C29" t="n" s="272">
-        <v>0.11183678580871742</v>
+        <v>0.3751194753251513</v>
       </c>
       <c r="D29" t="n" s="273">
-        <v>0.9109528196151279</v>
+        <v>0.7075716136287322</v>
       </c>
       <c r="E29" t="n" s="274">
         <v>1.0</v>
       </c>
       <c r="F29" t="n" s="275">
-        <v>1.0465825632811616</v>
+        <v>1.0910283949223734</v>
       </c>
       <c r="G29" t="n" s="276">
-        <v>0.2679765802237271</v>
+        <v>0.5045239195716457</v>
       </c>
       <c r="H29" t="n" s="277">
-        <v>0.7887173459128888</v>
+        <v>0.6138932577974161</v>
       </c>
       <c r="I29" t="n" s="278">
         <v>1.0</v>
@@ -3884,28 +3884,28 @@
         <v>56</v>
       </c>
       <c r="B30" t="n" s="271">
-        <v>0.606367363508597</v>
+        <v>1.8292629324360716</v>
       </c>
       <c r="C30" t="n" s="272">
-        <v>4.366826637517824</v>
+        <v>0.9853011376033769</v>
       </c>
       <c r="D30" t="n" s="273">
-        <v>1.26064707247102E-5</v>
+        <v>0.3244761741036402</v>
       </c>
       <c r="E30" t="n" s="274">
-        <v>8.824529507297141E-5</v>
+        <v>1.0</v>
       </c>
       <c r="F30" t="n" s="275">
-        <v>1.4326304247820323</v>
+        <v>1.4775526320818444</v>
       </c>
       <c r="G30" t="n" s="276">
-        <v>1.838293894546392</v>
+        <v>3.4060432434072485</v>
       </c>
       <c r="H30" t="n" s="277">
-        <v>0.06601911029173499</v>
+        <v>6.591173828152964E-4</v>
       </c>
       <c r="I30" t="n" s="278">
-        <v>0.39611466175040994</v>
+        <v>0.0026364695312611854</v>
       </c>
     </row>
     <row r="31">
@@ -3913,28 +3913,28 @@
         <v>57</v>
       </c>
       <c r="B31" t="n" s="271">
-        <v>0.932985039984501</v>
+        <v>1.6008622354817608</v>
       </c>
       <c r="C31" t="n" s="272">
-        <v>0.3563537984123076</v>
+        <v>1.0886281178060935</v>
       </c>
       <c r="D31" t="n" s="273">
-        <v>0.7215756247675948</v>
+        <v>0.27631791214221535</v>
       </c>
       <c r="E31" t="n" s="274">
         <v>1.0</v>
       </c>
       <c r="F31" t="n" s="275">
-        <v>1.3296463712546096</v>
+        <v>1.530272118864164</v>
       </c>
       <c r="G31" t="n" s="276">
-        <v>1.9204297397892194</v>
+        <v>4.147522955049341</v>
       </c>
       <c r="H31" t="n" s="277">
-        <v>0.05480364002234451</v>
+        <v>3.360917813039752E-5</v>
       </c>
       <c r="I31" t="n" s="278">
-        <v>0.38362548015641157</v>
+        <v>2.0165506878238514E-4</v>
       </c>
     </row>
     <row r="32">
@@ -3942,28 +3942,28 @@
         <v>58</v>
       </c>
       <c r="B32" t="n" s="271">
-        <v>1.0194215372202868</v>
+        <v>1.4985305564350457</v>
       </c>
       <c r="C32" t="n" s="272">
-        <v>0.2977375635948142</v>
+        <v>1.118494861381778</v>
       </c>
       <c r="D32" t="n" s="273">
-        <v>0.7659034712916437</v>
+        <v>0.2633556999685712</v>
       </c>
       <c r="E32" t="n" s="274">
         <v>1.0</v>
       </c>
       <c r="F32" t="n" s="275">
-        <v>1.189546060552072</v>
+        <v>1.4462704009467056</v>
       </c>
       <c r="G32" t="n" s="276">
-        <v>1.3848356830701916</v>
+        <v>3.897852783114783</v>
       </c>
       <c r="H32" t="n" s="277">
-        <v>0.16610271718650568</v>
+        <v>9.70493821777675E-5</v>
       </c>
       <c r="I32" t="n" s="278">
-        <v>0.8305135859325284</v>
+        <v>4.852469108888375E-4</v>
       </c>
     </row>
     <row r="33">
@@ -3971,28 +3971,28 @@
         <v>59</v>
       </c>
       <c r="B33" t="n" s="271">
-        <v>1.0830141838369547</v>
+        <v>1.5461537641625203</v>
       </c>
       <c r="C33" t="n" s="272">
-        <v>0.8888028672335552</v>
+        <v>1.7283439140951065</v>
       </c>
       <c r="D33" t="n" s="273">
-        <v>0.37410903467015355</v>
+        <v>0.083926584353431</v>
       </c>
       <c r="E33" t="n" s="274">
-        <v>1.0</v>
+        <v>0.7553392591808791</v>
       </c>
       <c r="F33" t="n" s="275">
-        <v>1.1075604764777456</v>
+        <v>1.54498033395595</v>
       </c>
       <c r="G33" t="n" s="276">
-        <v>0.9546000655931024</v>
+        <v>6.191867326001578</v>
       </c>
       <c r="H33" t="n" s="277">
-        <v>0.33977998399405945</v>
+        <v>5.945558912193372E-10</v>
       </c>
       <c r="I33" t="n" s="278">
-        <v>1.0</v>
+        <v>5.351003020974035E-9</v>
       </c>
     </row>
     <row r="34">
@@ -4000,28 +4000,28 @@
         <v>60</v>
       </c>
       <c r="B34" t="n" s="271">
-        <v>1.0283871772261235</v>
+        <v>1.2222924630314216</v>
       </c>
       <c r="C34" t="n" s="272">
-        <v>17.95484333547424</v>
+        <v>0.6334571708016246</v>
       </c>
       <c r="D34" t="n" s="273">
-        <v>4.3982096975428063E-72</v>
+        <v>0.5264351410285725</v>
       </c>
       <c r="E34" t="n" s="274">
-        <v>3.518567758034245E-71</v>
+        <v>1.0</v>
       </c>
       <c r="F34" t="n" s="275">
-        <v>1.1758933328492946</v>
+        <v>1.3039186099023232</v>
       </c>
       <c r="G34" t="n" s="276">
-        <v>2.1289743365609004</v>
+        <v>5.761601969003196</v>
       </c>
       <c r="H34" t="n" s="277">
-        <v>0.03325638372626137</v>
+        <v>8.331930137857103E-9</v>
       </c>
       <c r="I34" t="n" s="278">
-        <v>0.26605106981009097</v>
+        <v>6.665544110285682E-8</v>
       </c>
     </row>
     <row r="35">
@@ -4029,28 +4029,28 @@
         <v>61</v>
       </c>
       <c r="B35" t="n" s="271">
-        <v>1.8465688103884579</v>
+        <v>1.3586171734610515</v>
       </c>
       <c r="C35" t="n" s="272">
-        <v>606.2584388046969</v>
+        <v>0.8330693883409628</v>
       </c>
       <c r="D35" t="n" s="273">
-        <v>0.0</v>
+        <v>0.40480559674898575</v>
       </c>
       <c r="E35" t="n" s="274">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F35" t="n" s="275">
-        <v>1.4754614539211257</v>
+        <v>1.5887818210854272</v>
       </c>
       <c r="G35" t="n" s="276">
-        <v>3.1671057728402263</v>
+        <v>5.326487537690689</v>
       </c>
       <c r="H35" t="n" s="277">
-        <v>0.0015396430670782753</v>
+        <v>1.0013014683251828E-7</v>
       </c>
       <c r="I35" t="n" s="278">
-        <v>0.013856787603704478</v>
+        <v>7.00911027827628E-7</v>
       </c>
     </row>
     <row r="36">
@@ -5118,28 +5118,28 @@
         <v>10169.0</v>
       </c>
       <c r="B2" t="n" s="298">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C2" t="n" s="299">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D2" t="n" s="300">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="E2" t="n" s="301">
         <v>1.0</v>
       </c>
       <c r="F2" t="n" s="302">
-        <v>0.16605135359923726</v>
+        <v>2.7781834754655477</v>
       </c>
       <c r="G2" t="n" s="303">
-        <v>-1.1504027608680791</v>
+        <v>1.717576428697377</v>
       </c>
       <c r="H2" t="n" s="304">
-        <v>0.10289716490301003</v>
+        <v>2.735112378568191</v>
       </c>
       <c r="I2" t="n" s="305">
-        <v>-1.5216946069550323</v>
+        <v>1.6971933152011187</v>
       </c>
     </row>
     <row r="3">
@@ -5147,28 +5147,28 @@
         <v>10170.0</v>
       </c>
       <c r="B3" t="n" s="298">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C3" t="n" s="299">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="D3" t="n" s="300">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="E3" t="n" s="301">
         <v>2.0</v>
       </c>
       <c r="F3" t="n" s="302">
-        <v>0.15110515726036303</v>
+        <v>0.05279705269594434</v>
       </c>
       <c r="G3" t="n" s="303">
-        <v>-1.2266261751888763</v>
+        <v>-2.2803784220255285</v>
       </c>
       <c r="H3" t="n" s="304">
-        <v>0.1514116468781192</v>
+        <v>0.05302090631091641</v>
       </c>
       <c r="I3" t="n" s="305">
-        <v>-1.2306482204687177</v>
+        <v>-2.273043409751163</v>
       </c>
     </row>
     <row r="4">
@@ -5176,28 +5176,28 @@
         <v>10171.0</v>
       </c>
       <c r="B4" t="n" s="298">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C4" t="n" s="299">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="D4" t="n" s="300">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="E4" t="n" s="301">
         <v>3.0</v>
       </c>
       <c r="F4" t="n" s="302">
-        <v>0.3891907631675755</v>
+        <v>0.4793638065883781</v>
       </c>
       <c r="G4" t="n" s="303">
-        <v>-0.8290147994375661</v>
+        <v>-0.5641914046363424</v>
       </c>
       <c r="H4" t="n" s="304">
-        <v>0.3925309524305228</v>
+        <v>0.4774041974127866</v>
       </c>
       <c r="I4" t="n" s="305">
-        <v>-0.8454554193436942</v>
+        <v>-0.5756078523849222</v>
       </c>
     </row>
     <row r="5">
@@ -5205,28 +5205,28 @@
         <v>10172.0</v>
       </c>
       <c r="B5" t="n" s="298">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C5" t="n" s="299">
         <v>5.0</v>
       </c>
       <c r="D5" t="n" s="300">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="E5" t="n" s="301">
         <v>4.0</v>
       </c>
       <c r="F5" t="n" s="302">
-        <v>0.15110515726036303</v>
+        <v>0.06153719887357618</v>
       </c>
       <c r="G5" t="n" s="303">
-        <v>-1.2266261751888763</v>
+        <v>-2.0781862619555396</v>
       </c>
       <c r="H5" t="n" s="304">
-        <v>0.1514116468781192</v>
+        <v>0.06307826372971566</v>
       </c>
       <c r="I5" t="n" s="305">
-        <v>-1.2306482204687177</v>
+        <v>-2.0530191553311443</v>
       </c>
     </row>
     <row r="6">
@@ -5234,28 +5234,28 @@
         <v>10174.0</v>
       </c>
       <c r="B6" t="n" s="298">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="C6" t="n" s="299">
         <v>4.0</v>
       </c>
       <c r="D6" t="n" s="300">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="E6" t="n" s="301">
         <v>5.0</v>
       </c>
       <c r="F6" t="n" s="302">
-        <v>0.47563241960054586</v>
+        <v>0.06953492737981223</v>
       </c>
       <c r="G6" t="n" s="303">
-        <v>-0.7415686456274705</v>
+        <v>-1.7989356649936823</v>
       </c>
       <c r="H6" t="n" s="304">
-        <v>0.5060626145970675</v>
+        <v>0.07300850568280653</v>
       </c>
       <c r="I6" t="n" s="305">
-        <v>-0.6808867615427422</v>
+        <v>-1.786399301950968</v>
       </c>
     </row>
     <row r="7">
@@ -5269,22 +5269,22 @@
         <v>6.0</v>
       </c>
       <c r="D7" t="n" s="300">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="E7" t="n" s="301">
         <v>6.0</v>
       </c>
       <c r="F7" t="n" s="302">
-        <v>0.5272903724823087</v>
+        <v>0.31747807082701246</v>
       </c>
       <c r="G7" t="n" s="303">
-        <v>-0.5770198355764086</v>
+        <v>-0.7671921204864194</v>
       </c>
       <c r="H7" t="n" s="304">
-        <v>0.5513006056200306</v>
+        <v>0.2863600989363227</v>
       </c>
       <c r="I7" t="n" s="305">
-        <v>-0.5276387804329938</v>
+        <v>-0.8647377656907242</v>
       </c>
     </row>
     <row r="8">
@@ -5292,10 +5292,10 @@
         <v>10176.0</v>
       </c>
       <c r="B8" t="n" s="298">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="C8" t="n" s="299">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="D8" t="n" s="300">
         <v>3.0</v>
@@ -5304,16 +5304,16 @@
         <v>7.0</v>
       </c>
       <c r="F8" t="n" s="302">
-        <v>1.9292721421060932</v>
+        <v>1.9452746054847265</v>
       </c>
       <c r="G8" t="n" s="303">
-        <v>1.0910173021815526</v>
+        <v>1.160823467546148</v>
       </c>
       <c r="H8" t="n" s="304">
-        <v>1.8075051297351683</v>
+        <v>2.0281108540170467</v>
       </c>
       <c r="I8" t="n" s="305">
-        <v>1.0107393221150596</v>
+        <v>1.2257789267960637</v>
       </c>
     </row>
     <row r="9">
@@ -5321,28 +5321,28 @@
         <v>10178.0</v>
       </c>
       <c r="B9" t="n" s="298">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C9" t="n" s="299">
         <v>5.0</v>
       </c>
       <c r="D9" t="n" s="300">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="E9" t="n" s="301">
         <v>8.0</v>
       </c>
       <c r="F9" t="n" s="302">
-        <v>0.15110515726036303</v>
+        <v>0.06153719887357618</v>
       </c>
       <c r="G9" t="n" s="303">
-        <v>-1.2266261751888763</v>
+        <v>-2.0781862619555396</v>
       </c>
       <c r="H9" t="n" s="304">
-        <v>0.1514116468781192</v>
+        <v>0.06307826372971566</v>
       </c>
       <c r="I9" t="n" s="305">
-        <v>-1.2306482204687177</v>
+        <v>-2.0530191553311443</v>
       </c>
     </row>
     <row r="10">
@@ -5350,28 +5350,28 @@
         <v>10179.0</v>
       </c>
       <c r="B10" t="n" s="298">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="C10" t="n" s="299">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="D10" t="n" s="300">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="E10" t="n" s="301">
         <v>9.0</v>
       </c>
       <c r="F10" t="n" s="302">
-        <v>0.17585173511622554</v>
+        <v>0.369800453630625</v>
       </c>
       <c r="G10" t="n" s="303">
-        <v>-1.614763178781234</v>
+        <v>-0.893121002874813</v>
       </c>
       <c r="H10" t="n" s="304">
-        <v>0.17179086085722184</v>
+        <v>0.38013889531546974</v>
       </c>
       <c r="I10" t="n" s="305">
-        <v>-1.6396450345205968</v>
+        <v>-0.8588965313845428</v>
       </c>
     </row>
     <row r="11">
@@ -5379,28 +5379,28 @@
         <v>10181.0</v>
       </c>
       <c r="B11" t="n" s="298">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C11" t="n" s="299">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="D11" t="n" s="300">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="E11" t="n" s="301">
         <v>10.0</v>
       </c>
       <c r="F11" t="n" s="302">
-        <v>0.500636271209992</v>
+        <v>1.0127501019267544</v>
       </c>
       <c r="G11" t="n" s="303">
-        <v>-0.3698981773683182</v>
+        <v>0.2840710775282192</v>
       </c>
       <c r="H11" t="n" s="304">
-        <v>0.49365048205329665</v>
+        <v>1.0537562286068756</v>
       </c>
       <c r="I11" t="n" s="305">
-        <v>-0.3848698224486477</v>
+        <v>0.3319029510330517</v>
       </c>
     </row>
     <row r="12">
@@ -5411,7 +5411,7 @@
         <v>3.0</v>
       </c>
       <c r="C12" t="n" s="299">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="D12" t="n" s="300">
         <v>4.0</v>
@@ -5420,16 +5420,16 @@
         <v>11.0</v>
       </c>
       <c r="F12" t="n" s="302">
-        <v>0.28417020017625755</v>
+        <v>0.18483371845559468</v>
       </c>
       <c r="G12" t="n" s="303">
-        <v>-1.0266098843999116</v>
+        <v>-1.2388208815592943</v>
       </c>
       <c r="H12" t="n" s="304">
-        <v>0.26580569859536757</v>
+        <v>0.18216714215439664</v>
       </c>
       <c r="I12" t="n" s="305">
-        <v>-1.128687060583843</v>
+        <v>-1.2572953708896057</v>
       </c>
     </row>
     <row r="13">
@@ -5440,7 +5440,7 @@
         <v>6.0</v>
       </c>
       <c r="C13" t="n" s="299">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="D13" t="n" s="300">
         <v>6.0</v>
@@ -5449,16 +5449,16 @@
         <v>12.0</v>
       </c>
       <c r="F13" t="n" s="302">
-        <v>0.1304207293930408</v>
+        <v>0.26331227718510114</v>
       </c>
       <c r="G13" t="n" s="303">
-        <v>-1.68345178063497</v>
+        <v>-0.9054488892746337</v>
       </c>
       <c r="H13" t="n" s="304">
-        <v>0.14865993512143189</v>
+        <v>0.22422233417629914</v>
       </c>
       <c r="I13" t="n" s="305">
-        <v>-1.6361231566237122</v>
+        <v>-1.0402025150129741</v>
       </c>
     </row>
     <row r="14">
@@ -5466,7 +5466,7 @@
         <v>10185.0</v>
       </c>
       <c r="B14" t="n" s="298">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C14" t="n" s="299">
         <v>4.0</v>
@@ -5478,16 +5478,16 @@
         <v>13.0</v>
       </c>
       <c r="F14" t="n" s="302">
-        <v>0.01725514438647071</v>
+        <v>0.06953492737981223</v>
       </c>
       <c r="G14" t="n" s="303">
-        <v>-2.1902397309957875</v>
+        <v>-1.7989356649936823</v>
       </c>
       <c r="H14" t="n" s="304">
-        <v>0.016520785833704785</v>
+        <v>0.07300850568280653</v>
       </c>
       <c r="I14" t="n" s="305">
-        <v>-2.3196168245505357</v>
+        <v>-1.786399301950968</v>
       </c>
     </row>
     <row r="15">
@@ -5495,28 +5495,28 @@
         <v>10186.0</v>
       </c>
       <c r="B15" t="n" s="298">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="C15" t="n" s="299">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="D15" t="n" s="300">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="E15" t="n" s="301">
         <v>14.0</v>
       </c>
       <c r="F15" t="n" s="302">
-        <v>1.1134887647858858</v>
+        <v>2.3273533734965857</v>
       </c>
       <c r="G15" t="n" s="303">
-        <v>0.4314300968269371</v>
+        <v>1.5627551234958634</v>
       </c>
       <c r="H15" t="n" s="304">
-        <v>1.049688866021261</v>
+        <v>2.4349831227161567</v>
       </c>
       <c r="I15" t="n" s="305">
-        <v>0.3644936319946444</v>
+        <v>1.6419961710387387</v>
       </c>
     </row>
     <row r="16">
@@ -5524,10 +5524,10 @@
         <v>10187.0</v>
       </c>
       <c r="B16" t="n" s="298">
+        <v>4.0</v>
+      </c>
+      <c r="C16" t="n" s="299">
         <v>5.0</v>
-      </c>
-      <c r="C16" t="n" s="299">
-        <v>4.0</v>
       </c>
       <c r="D16" t="n" s="300">
         <v>5.0</v>
@@ -5536,16 +5536,16 @@
         <v>15.0</v>
       </c>
       <c r="F16" t="n" s="302">
-        <v>0.6324992556103586</v>
+        <v>0.027385681279563243</v>
       </c>
       <c r="G16" t="n" s="303">
-        <v>-0.233545291689303</v>
+        <v>-2.2703203874113904</v>
       </c>
       <c r="H16" t="n" s="304">
-        <v>0.63145680188221</v>
+        <v>0.027702241369677933</v>
       </c>
       <c r="I16" t="n" s="305">
-        <v>-0.25285447038534853</v>
+        <v>-2.255003193715689</v>
       </c>
     </row>
     <row r="17">
@@ -5556,7 +5556,7 @@
         <v>4.0</v>
       </c>
       <c r="C17" t="n" s="299">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D17" t="n" s="300">
         <v>4.0</v>
@@ -5565,16 +5565,16 @@
         <v>16.0</v>
       </c>
       <c r="F17" t="n" s="302">
-        <v>0.12368962220368546</v>
+        <v>0.09316206125715192</v>
       </c>
       <c r="G17" t="n" s="303">
-        <v>-1.2720229524198892</v>
+        <v>-1.6342712356630527</v>
       </c>
       <c r="H17" t="n" s="304">
-        <v>0.13300087370170718</v>
+        <v>0.09042825775768827</v>
       </c>
       <c r="I17" t="n" s="305">
-        <v>-1.2551744198974928</v>
+        <v>-1.6462789583262936</v>
       </c>
     </row>
     <row r="18">
@@ -5588,22 +5588,22 @@
         <v>1.0</v>
       </c>
       <c r="D18" t="n" s="300">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="E18" t="n" s="301">
         <v>17.0</v>
       </c>
       <c r="F18" t="n" s="302">
-        <v>0.15296541203879213</v>
+        <v>0.7069255354964797</v>
       </c>
       <c r="G18" t="n" s="303">
-        <v>-0.26275774350634173</v>
+        <v>-0.0825769118038352</v>
       </c>
       <c r="H18" t="n" s="304">
-        <v>0.17094569378154273</v>
+        <v>0.7597078249725663</v>
       </c>
       <c r="I18" t="n" s="305">
-        <v>-0.2865100922872923</v>
+        <v>-0.04991333914729018</v>
       </c>
     </row>
     <row r="19">
@@ -5611,28 +5611,28 @@
         <v>10190.0</v>
       </c>
       <c r="B19" t="n" s="298">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="C19" t="n" s="299">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="D19" t="n" s="300">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="E19" t="n" s="301">
         <v>18.0</v>
       </c>
       <c r="F19" t="n" s="302">
-        <v>0.9931347958171973</v>
+        <v>0.7492998297127481</v>
       </c>
       <c r="G19" t="n" s="303">
-        <v>0.22652081216904213</v>
+        <v>-0.08613652050539167</v>
       </c>
       <c r="H19" t="n" s="304">
-        <v>1.0300034852969824</v>
+        <v>0.6956935279801135</v>
       </c>
       <c r="I19" t="n" s="305">
-        <v>0.2778084584820774</v>
+        <v>-0.17526845450202733</v>
       </c>
     </row>
     <row r="20">
@@ -5640,28 +5640,28 @@
         <v>10191.0</v>
       </c>
       <c r="B20" t="n" s="298">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C20" t="n" s="299">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="D20" t="n" s="300">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="E20" t="n" s="301">
         <v>19.0</v>
       </c>
       <c r="F20" t="n" s="302">
-        <v>0.3891907631675755</v>
+        <v>0.8120337026703016</v>
       </c>
       <c r="G20" t="n" s="303">
-        <v>-0.8290147994375661</v>
+        <v>0.07349149721311674</v>
       </c>
       <c r="H20" t="n" s="304">
-        <v>0.3925309524305228</v>
+        <v>0.8382857724850824</v>
       </c>
       <c r="I20" t="n" s="305">
-        <v>-0.8454554193436942</v>
+        <v>0.10000070323985699</v>
       </c>
     </row>
     <row r="21">
@@ -5681,16 +5681,16 @@
         <v>20.0</v>
       </c>
       <c r="F21" t="n" s="302">
-        <v>0.15991686034946617</v>
+        <v>0.1663338969939898</v>
       </c>
       <c r="G21" t="n" s="303">
-        <v>-0.26040920453745675</v>
+        <v>-0.26405558290451014</v>
       </c>
       <c r="H21" t="n" s="304">
-        <v>0.18701302587400412</v>
+        <v>0.1749610995959872</v>
       </c>
       <c r="I21" t="n" s="305">
-        <v>-0.2787402088543043</v>
+        <v>-0.2649091508568864</v>
       </c>
     </row>
     <row r="22">
@@ -5698,28 +5698,28 @@
         <v>10193.0</v>
       </c>
       <c r="B22" t="n" s="298">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="C22" t="n" s="299">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="D22" t="n" s="300">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="E22" t="n" s="301">
         <v>21.0</v>
       </c>
       <c r="F22" t="n" s="302">
-        <v>1.9844959129645077</v>
+        <v>0.512741027295086</v>
       </c>
       <c r="G22" t="n" s="303">
-        <v>1.3591712859227736</v>
+        <v>-0.7120132412292095</v>
       </c>
       <c r="H22" t="n" s="304">
-        <v>2.0396997345494996</v>
+        <v>0.49010598979278014</v>
       </c>
       <c r="I22" t="n" s="305">
-        <v>1.4197607586920853</v>
+        <v>-0.7650411024032321</v>
       </c>
     </row>
     <row r="23">
@@ -5730,25 +5730,25 @@
         <v>4.0</v>
       </c>
       <c r="C23" t="n" s="299">
+        <v>2.0</v>
+      </c>
+      <c r="D23" t="n" s="300">
         <v>4.0</v>
-      </c>
-      <c r="D23" t="n" s="300">
-        <v>5.0</v>
       </c>
       <c r="E23" t="n" s="301">
         <v>22.0</v>
       </c>
       <c r="F23" t="n" s="302">
-        <v>0.2739105360079013</v>
+        <v>0.9078902916623113</v>
       </c>
       <c r="G23" t="n" s="303">
-        <v>-0.8438118804915403</v>
+        <v>0.11886786678003355</v>
       </c>
       <c r="H23" t="n" s="304">
-        <v>0.27802082804960976</v>
+        <v>0.8982392256059751</v>
       </c>
       <c r="I23" t="n" s="305">
-        <v>-0.8373077800629374</v>
+        <v>0.10225739042826737</v>
       </c>
     </row>
     <row r="24">
@@ -5756,28 +5756,28 @@
         <v>10197.0</v>
       </c>
       <c r="B24" t="n" s="298">
+        <v>3.0</v>
+      </c>
+      <c r="C24" t="n" s="299">
         <v>4.0</v>
       </c>
-      <c r="C24" t="n" s="299">
-        <v>3.0</v>
-      </c>
       <c r="D24" t="n" s="300">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="E24" t="n" s="301">
         <v>23.0</v>
       </c>
       <c r="F24" t="n" s="302">
-        <v>0.7537294711890126</v>
+        <v>0.8434407050135836</v>
       </c>
       <c r="G24" t="n" s="303">
-        <v>-0.07397445995350271</v>
+        <v>0.09116012920419245</v>
       </c>
       <c r="H24" t="n" s="304">
-        <v>0.8033619738703857</v>
+        <v>0.8358207463094898</v>
       </c>
       <c r="I24" t="n" s="305">
-        <v>-0.015720792281337936</v>
+        <v>0.08195932789182467</v>
       </c>
     </row>
     <row r="25">
@@ -5797,16 +5797,16 @@
         <v>24.0</v>
       </c>
       <c r="F25" t="n" s="302">
-        <v>0.15991686034946617</v>
+        <v>0.1663338969939898</v>
       </c>
       <c r="G25" t="n" s="303">
-        <v>-0.26040920453745675</v>
+        <v>-0.26405558290451014</v>
       </c>
       <c r="H25" t="n" s="304">
-        <v>0.18701302587400412</v>
+        <v>0.1749610995959872</v>
       </c>
       <c r="I25" t="n" s="305">
-        <v>-0.2787402088543043</v>
+        <v>-0.2649091508568864</v>
       </c>
     </row>
     <row r="26">
@@ -5817,7 +5817,7 @@
         <v>4.0</v>
       </c>
       <c r="C26" t="n" s="299">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="D26" t="n" s="300">
         <v>5.0</v>
@@ -5826,16 +5826,16 @@
         <v>25.0</v>
       </c>
       <c r="F26" t="n" s="302">
-        <v>0.2739105360079013</v>
+        <v>0.24105632110727446</v>
       </c>
       <c r="G26" t="n" s="303">
-        <v>-0.8438118804915403</v>
+        <v>-1.1994215449713344</v>
       </c>
       <c r="H26" t="n" s="304">
-        <v>0.27802082804960976</v>
+        <v>0.2393532541716483</v>
       </c>
       <c r="I26" t="n" s="305">
-        <v>-0.8373077800629374</v>
+        <v>-1.1967263416101759</v>
       </c>
     </row>
     <row r="27">
@@ -5843,7 +5843,7 @@
         <v>10201.0</v>
       </c>
       <c r="B27" t="n" s="298">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="C27" t="n" s="299">
         <v>6.0</v>
@@ -5855,16 +5855,16 @@
         <v>26.0</v>
       </c>
       <c r="F27" t="n" s="302">
-        <v>1.3182898003172288</v>
+        <v>0.05111718841081548</v>
       </c>
       <c r="G27" t="n" s="303">
-        <v>0.635893207994864</v>
+        <v>-2.129809129390707</v>
       </c>
       <c r="H27" t="n" s="304">
-        <v>1.2425767709593243</v>
+        <v>0.05930794840011631</v>
       </c>
       <c r="I27" t="n" s="305">
-        <v>0.5513316721168836</v>
+        <v>-2.075479688380279</v>
       </c>
     </row>
     <row r="28">
@@ -5872,28 +5872,28 @@
         <v>10202.0</v>
       </c>
       <c r="B28" t="n" s="298">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C28" t="n" s="299">
         <v>5.0</v>
       </c>
       <c r="D28" t="n" s="300">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="E28" t="n" s="301">
         <v>27.0</v>
       </c>
       <c r="F28" t="n" s="302">
-        <v>0.15110515726036303</v>
+        <v>0.06153719887357618</v>
       </c>
       <c r="G28" t="n" s="303">
-        <v>-1.2266261751888763</v>
+        <v>-2.0781862619555396</v>
       </c>
       <c r="H28" t="n" s="304">
-        <v>0.1514116468781192</v>
+        <v>0.06307826372971566</v>
       </c>
       <c r="I28" t="n" s="305">
-        <v>-1.2306482204687177</v>
+        <v>-2.0530191553311443</v>
       </c>
     </row>
     <row r="29">
@@ -5913,16 +5913,16 @@
         <v>28.0</v>
       </c>
       <c r="F29" t="n" s="302">
-        <v>0.15991686034946617</v>
+        <v>0.1663338969939898</v>
       </c>
       <c r="G29" t="n" s="303">
-        <v>-0.26040920453745675</v>
+        <v>-0.26405558290451014</v>
       </c>
       <c r="H29" t="n" s="304">
-        <v>0.18701302587400412</v>
+        <v>0.1749610995959872</v>
       </c>
       <c r="I29" t="n" s="305">
-        <v>-0.2787402088543043</v>
+        <v>-0.2649091508568864</v>
       </c>
     </row>
     <row r="30">
@@ -5930,28 +5930,28 @@
         <v>10204.0</v>
       </c>
       <c r="B30" t="n" s="298">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="C30" t="n" s="299">
         <v>7.0</v>
       </c>
       <c r="D30" t="n" s="300">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="E30" t="n" s="301">
         <v>29.0</v>
       </c>
       <c r="F30" t="n" s="302">
-        <v>1.4523134816169387</v>
+        <v>1.4182536747537362</v>
       </c>
       <c r="G30" t="n" s="303">
-        <v>0.7751029048125677</v>
+        <v>0.7124201568683296</v>
       </c>
       <c r="H30" t="n" s="304">
-        <v>1.551737530611322</v>
+        <v>1.4097913273070566</v>
       </c>
       <c r="I30" t="n" s="305">
-        <v>0.8818191113349783</v>
+        <v>0.7064980858833598</v>
       </c>
     </row>
     <row r="31">
@@ -5962,7 +5962,7 @@
         <v>4.0</v>
       </c>
       <c r="C31" t="n" s="299">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="D31" t="n" s="300">
         <v>5.0</v>
@@ -5971,16 +5971,16 @@
         <v>30.0</v>
       </c>
       <c r="F31" t="n" s="302">
-        <v>0.2739105360079013</v>
+        <v>0.24105632110727446</v>
       </c>
       <c r="G31" t="n" s="303">
-        <v>-0.8438118804915403</v>
+        <v>-1.1994215449713344</v>
       </c>
       <c r="H31" t="n" s="304">
-        <v>0.27802082804960976</v>
+        <v>0.2393532541716483</v>
       </c>
       <c r="I31" t="n" s="305">
-        <v>-0.8373077800629374</v>
+        <v>-1.1967263416101759</v>
       </c>
     </row>
     <row r="32">
@@ -5988,7 +5988,7 @@
         <v>10208.0</v>
       </c>
       <c r="B32" t="n" s="298">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C32" t="n" s="299">
         <v>5.0</v>
@@ -6000,16 +6000,16 @@
         <v>31.0</v>
       </c>
       <c r="F32" t="n" s="302">
-        <v>0.15110515726036303</v>
+        <v>0.29175038425903327</v>
       </c>
       <c r="G32" t="n" s="303">
-        <v>-1.2266261751888763</v>
+        <v>-0.9522649797246294</v>
       </c>
       <c r="H32" t="n" s="304">
-        <v>0.1514116468781192</v>
+        <v>0.2956849437081248</v>
       </c>
       <c r="I32" t="n" s="305">
-        <v>-1.2306482204687177</v>
+        <v>-0.9355719922779764</v>
       </c>
     </row>
     <row r="33">
@@ -6017,28 +6017,28 @@
         <v>10209.0</v>
       </c>
       <c r="B33" t="n" s="298">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="C33" t="n" s="299">
         <v>1.0</v>
       </c>
       <c r="D33" t="n" s="300">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="E33" t="n" s="301">
         <v>32.0</v>
       </c>
       <c r="F33" t="n" s="302">
-        <v>4.322097356372896</v>
+        <v>1.2749678232704469</v>
       </c>
       <c r="G33" t="n" s="303">
-        <v>2.6484534071750687</v>
+        <v>0.5903670961999041</v>
       </c>
       <c r="H33" t="n" s="304">
-        <v>3.4151588668957644</v>
+        <v>1.3603087396414284</v>
       </c>
       <c r="I33" t="n" s="305">
-        <v>2.2981022328590948</v>
+        <v>0.6986849691324192</v>
       </c>
     </row>
     <row r="34">
@@ -6046,28 +6046,28 @@
         <v>10210.0</v>
       </c>
       <c r="B34" t="n" s="298">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="C34" t="n" s="299">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="D34" t="n" s="300">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="E34" t="n" s="301">
         <v>33.0</v>
       </c>
       <c r="F34" t="n" s="302">
-        <v>2.3433437409690745</v>
+        <v>0.41326943709143626</v>
       </c>
       <c r="G34" t="n" s="303">
-        <v>1.3548290324760506</v>
+        <v>-0.7852615959798723</v>
       </c>
       <c r="H34" t="n" s="304">
-        <v>2.3429610894151263</v>
+        <v>0.4220895070553976</v>
       </c>
       <c r="I34" t="n" s="305">
-        <v>1.3630924087933909</v>
+        <v>-0.7726486161381512</v>
       </c>
     </row>
     <row r="35">
@@ -6075,28 +6075,28 @@
         <v>10211.0</v>
       </c>
       <c r="B35" t="n" s="298">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C35" t="n" s="299">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D35" t="n" s="300">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E35" t="n" s="301">
         <v>34.0</v>
       </c>
       <c r="F35" t="n" s="302">
-        <v>0.11723739291903414</v>
+        <v>0.990274285218213</v>
       </c>
       <c r="G35" t="n" s="303">
-        <v>-1.9274670439211903</v>
+        <v>0.2001592964531711</v>
       </c>
       <c r="H35" t="n" s="304">
-        <v>0.12671558225956278</v>
+        <v>1.0175587819282668</v>
       </c>
       <c r="I35" t="n" s="305">
-        <v>-1.9826320277354663</v>
+        <v>0.2426946834024378</v>
       </c>
     </row>
     <row r="36">
@@ -6104,28 +6104,28 @@
         <v>10212.0</v>
       </c>
       <c r="B36" t="n" s="298">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C36" t="n" s="299">
+        <v>4.0</v>
+      </c>
+      <c r="D36" t="n" s="300">
         <v>5.0</v>
-      </c>
-      <c r="D36" t="n" s="300">
-        <v>2.0</v>
       </c>
       <c r="E36" t="n" s="301">
         <v>35.0</v>
       </c>
       <c r="F36" t="n" s="302">
-        <v>1.4686456999722133</v>
+        <v>0.36498827595762573</v>
       </c>
       <c r="G36" t="n" s="303">
-        <v>0.7806125169401559</v>
+        <v>-0.7649863478561398</v>
       </c>
       <c r="H36" t="n" s="304">
-        <v>1.3718587400773763</v>
+        <v>0.36482086808661024</v>
       </c>
       <c r="I36" t="n" s="305">
-        <v>0.6890844532309546</v>
+        <v>-0.7601983003954194</v>
       </c>
     </row>
     <row r="37">
@@ -6133,28 +6133,28 @@
         <v>10213.0</v>
       </c>
       <c r="B37" t="n" s="298">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="C37" t="n" s="299">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="D37" t="n" s="300">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="E37" t="n" s="301">
         <v>36.0</v>
       </c>
       <c r="F37" t="n" s="302">
-        <v>2.3433437409690745</v>
+        <v>0.9442119152357814</v>
       </c>
       <c r="G37" t="n" s="303">
-        <v>1.3548290324760506</v>
+        <v>0.17054549514574063</v>
       </c>
       <c r="H37" t="n" s="304">
-        <v>2.3429610894151263</v>
+        <v>0.9767003633124288</v>
       </c>
       <c r="I37" t="n" s="305">
-        <v>1.3630924087933909</v>
+        <v>0.2160717122911807</v>
       </c>
     </row>
     <row r="38">
@@ -6162,28 +6162,28 @@
         <v>10214.0</v>
       </c>
       <c r="B38" t="n" s="298">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C38" t="n" s="299">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D38" t="n" s="300">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="E38" t="n" s="301">
         <v>37.0</v>
       </c>
       <c r="F38" t="n" s="302">
-        <v>0.01725514438647071</v>
+        <v>0.027385681279563243</v>
       </c>
       <c r="G38" t="n" s="303">
-        <v>-2.1902397309957875</v>
+        <v>-2.2703203874113904</v>
       </c>
       <c r="H38" t="n" s="304">
-        <v>0.016520785833704785</v>
+        <v>0.027702241369677933</v>
       </c>
       <c r="I38" t="n" s="305">
-        <v>-2.3196168245505357</v>
+        <v>-2.255003193715689</v>
       </c>
     </row>
     <row r="39">
@@ -6191,28 +6191,28 @@
         <v>10215.0</v>
       </c>
       <c r="B39" t="n" s="298">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="C39" t="n" s="299">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="D39" t="n" s="300">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="E39" t="n" s="301">
         <v>38.0</v>
       </c>
       <c r="F39" t="n" s="302">
-        <v>2.9279542799448848</v>
+        <v>0.369800453630625</v>
       </c>
       <c r="G39" t="n" s="303">
-        <v>2.0679848970321113</v>
+        <v>-0.893121002874813</v>
       </c>
       <c r="H39" t="n" s="304">
-        <v>2.8806280671455062</v>
+        <v>0.38013889531546974</v>
       </c>
       <c r="I39" t="n" s="305">
-        <v>2.038687314554705</v>
+        <v>-0.8588965313845428</v>
       </c>
     </row>
     <row r="40">
@@ -6220,28 +6220,28 @@
         <v>10216.0</v>
       </c>
       <c r="B40" t="n" s="298">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="C40" t="n" s="299">
         <v>7.0</v>
       </c>
       <c r="D40" t="n" s="300">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="E40" t="n" s="301">
         <v>39.0</v>
       </c>
       <c r="F40" t="n" s="302">
-        <v>0.9080834866852495</v>
+        <v>0.1663338969939898</v>
       </c>
       <c r="G40" t="n" s="303">
-        <v>0.10234108740350581</v>
+        <v>-0.26405558290451014</v>
       </c>
       <c r="H40" t="n" s="304">
-        <v>0.9105495672286913</v>
+        <v>0.1749610995959872</v>
       </c>
       <c r="I40" t="n" s="305">
-        <v>0.10540337967650837</v>
+        <v>-0.2649091508568864</v>
       </c>
     </row>
     <row r="41">
@@ -6249,7 +6249,7 @@
         <v>10217.0</v>
       </c>
       <c r="B41" t="n" s="298">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="C41" t="n" s="299">
         <v>6.0</v>
@@ -6261,16 +6261,16 @@
         <v>40.0</v>
       </c>
       <c r="F41" t="n" s="302">
-        <v>0.36982695685889416</v>
+        <v>0.05111718841081548</v>
       </c>
       <c r="G41" t="n" s="303">
-        <v>-0.9664175297650747</v>
+        <v>-2.129809129390707</v>
       </c>
       <c r="H41" t="n" s="304">
-        <v>0.3670178286129036</v>
+        <v>0.05930794840011631</v>
       </c>
       <c r="I41" t="n" s="305">
-        <v>-0.9775781450984687</v>
+        <v>-2.075479688380279</v>
       </c>
     </row>
     <row r="42">
@@ -6278,28 +6278,28 @@
         <v>10218.0</v>
       </c>
       <c r="B42" t="n" s="298">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C42" t="n" s="299">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="D42" t="n" s="300">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="E42" t="n" s="301">
         <v>41.0</v>
       </c>
       <c r="F42" t="n" s="302">
-        <v>0.03232789105335026</v>
+        <v>0.8120337026703016</v>
       </c>
       <c r="G42" t="n" s="303">
-        <v>-2.180750861015797</v>
+        <v>0.07349149721311674</v>
       </c>
       <c r="H42" t="n" s="304">
-        <v>0.030097022491076632</v>
+        <v>0.8382857724850824</v>
       </c>
       <c r="I42" t="n" s="305">
-        <v>-2.269743362852398</v>
+        <v>0.10000070323985699</v>
       </c>
     </row>
     <row r="43">
@@ -6307,28 +6307,28 @@
         <v>10219.0</v>
       </c>
       <c r="B43" t="n" s="298">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="C43" t="n" s="299">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="D43" t="n" s="300">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E43" t="n" s="301">
         <v>42.0</v>
       </c>
       <c r="F43" t="n" s="302">
-        <v>1.3301969938357077</v>
+        <v>0.35468091138660224</v>
       </c>
       <c r="G43" t="n" s="303">
-        <v>0.6576810270817526</v>
+        <v>-1.1418402720004812</v>
       </c>
       <c r="H43" t="n" s="304">
-        <v>1.3499907213228906</v>
+        <v>0.35129096288832007</v>
       </c>
       <c r="I43" t="n" s="305">
-        <v>0.6811882738070694</v>
+        <v>-1.1490348590400496</v>
       </c>
     </row>
     <row r="44">
@@ -6348,16 +6348,16 @@
         <v>43.0</v>
       </c>
       <c r="F44" t="n" s="302">
-        <v>0.15991686034946617</v>
+        <v>0.1663338969939898</v>
       </c>
       <c r="G44" t="n" s="303">
-        <v>-0.26040920453745675</v>
+        <v>-0.26405558290451014</v>
       </c>
       <c r="H44" t="n" s="304">
-        <v>0.18701302587400412</v>
+        <v>0.1749610995959872</v>
       </c>
       <c r="I44" t="n" s="305">
-        <v>-0.2787402088543043</v>
+        <v>-0.2649091508568864</v>
       </c>
     </row>
     <row r="45">
@@ -6365,28 +6365,28 @@
         <v>10221.0</v>
       </c>
       <c r="B45" t="n" s="298">
+        <v>6.0</v>
+      </c>
+      <c r="C45" t="n" s="299">
         <v>4.0</v>
       </c>
-      <c r="C45" t="n" s="299">
+      <c r="D45" t="n" s="300">
         <v>6.0</v>
-      </c>
-      <c r="D45" t="n" s="300">
-        <v>3.0</v>
       </c>
       <c r="E45" t="n" s="301">
         <v>44.0</v>
       </c>
       <c r="F45" t="n" s="302">
-        <v>1.635826267135769</v>
+        <v>1.0815824619030177</v>
       </c>
       <c r="G45" t="n" s="303">
-        <v>0.8893886775582426</v>
+        <v>0.3544831470553619</v>
       </c>
       <c r="H45" t="n" s="304">
-        <v>1.6483108518723149</v>
+        <v>1.0641357269404492</v>
       </c>
       <c r="I45" t="n" s="305">
-        <v>0.9000093630590398</v>
+        <v>0.3329531352746593</v>
       </c>
     </row>
     <row r="46">
@@ -6394,10 +6394,10 @@
         <v>10223.0</v>
       </c>
       <c r="B46" t="n" s="298">
+        <v>4.0</v>
+      </c>
+      <c r="C46" t="n" s="299">
         <v>2.0</v>
-      </c>
-      <c r="C46" t="n" s="299">
-        <v>4.0</v>
       </c>
       <c r="D46" t="n" s="300">
         <v>2.0</v>
@@ -6406,16 +6406,16 @@
         <v>45.0</v>
       </c>
       <c r="F46" t="n" s="302">
-        <v>0.47563241960054586</v>
+        <v>1.0744711480182416</v>
       </c>
       <c r="G46" t="n" s="303">
-        <v>-0.7415686456274705</v>
+        <v>0.3278338082426185</v>
       </c>
       <c r="H46" t="n" s="304">
-        <v>0.5060626145970675</v>
+        <v>1.0223506266049058</v>
       </c>
       <c r="I46" t="n" s="305">
-        <v>-0.6808867615427422</v>
+        <v>0.250002222638541</v>
       </c>
     </row>
     <row r="47">
@@ -6426,7 +6426,7 @@
         <v>4.0</v>
       </c>
       <c r="C47" t="n" s="299">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="D47" t="n" s="300">
         <v>6.0</v>
@@ -6435,16 +6435,16 @@
         <v>46.0</v>
       </c>
       <c r="F47" t="n" s="302">
-        <v>0.8867012600654215</v>
+        <v>0.369800453630625</v>
       </c>
       <c r="G47" t="n" s="303">
-        <v>0.13551478697532515</v>
+        <v>-0.893121002874813</v>
       </c>
       <c r="H47" t="n" s="304">
-        <v>0.9309430403958286</v>
+        <v>0.38013889531546974</v>
       </c>
       <c r="I47" t="n" s="305">
-        <v>0.18421339338320775</v>
+        <v>-0.8588965313845428</v>
       </c>
     </row>
     <row r="48">
@@ -6452,28 +6452,28 @@
         <v>10226.0</v>
       </c>
       <c r="B48" t="n" s="298">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="C48" t="n" s="299">
         <v>6.0</v>
       </c>
       <c r="D48" t="n" s="300">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="E48" t="n" s="301">
         <v>47.0</v>
       </c>
       <c r="F48" t="n" s="302">
-        <v>0.2633515952664097</v>
+        <v>0.05111718841081548</v>
       </c>
       <c r="G48" t="n" s="303">
-        <v>-1.1853769417434725</v>
+        <v>-2.129809129390707</v>
       </c>
       <c r="H48" t="n" s="304">
-        <v>0.2605123820064565</v>
+        <v>0.05930794840011631</v>
       </c>
       <c r="I48" t="n" s="305">
-        <v>-1.226424784604311</v>
+        <v>-2.075479688380279</v>
       </c>
     </row>
     <row r="49">
@@ -6493,16 +6493,16 @@
         <v>48.0</v>
       </c>
       <c r="F49" t="n" s="302">
-        <v>0.1304207293930408</v>
+        <v>0.05111718841081548</v>
       </c>
       <c r="G49" t="n" s="303">
-        <v>-1.68345178063497</v>
+        <v>-2.129809129390707</v>
       </c>
       <c r="H49" t="n" s="304">
-        <v>0.14865993512143189</v>
+        <v>0.05930794840011631</v>
       </c>
       <c r="I49" t="n" s="305">
-        <v>-1.6361231566237122</v>
+        <v>-2.075479688380279</v>
       </c>
     </row>
     <row r="50">
@@ -6513,7 +6513,7 @@
         <v>4.0</v>
       </c>
       <c r="C50" t="n" s="299">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D50" t="n" s="300">
         <v>4.0</v>
@@ -6522,16 +6522,16 @@
         <v>49.0</v>
       </c>
       <c r="F50" t="n" s="302">
-        <v>0.12368962220368546</v>
+        <v>0.09316206125715192</v>
       </c>
       <c r="G50" t="n" s="303">
-        <v>-1.2720229524198892</v>
+        <v>-1.6342712356630527</v>
       </c>
       <c r="H50" t="n" s="304">
-        <v>0.13300087370170718</v>
+        <v>0.09042825775768827</v>
       </c>
       <c r="I50" t="n" s="305">
-        <v>-1.2551744198974928</v>
+        <v>-1.6462789583262936</v>
       </c>
     </row>
     <row r="51">
@@ -6542,25 +6542,25 @@
         <v>5.0</v>
       </c>
       <c r="C51" t="n" s="299">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="D51" t="n" s="300">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="E51" t="n" s="301">
         <v>50.0</v>
       </c>
       <c r="F51" t="n" s="302">
-        <v>0.1516376943717768</v>
+        <v>0.8120337026703016</v>
       </c>
       <c r="G51" t="n" s="303">
-        <v>-1.6160996255394644</v>
+        <v>0.07349149721311674</v>
       </c>
       <c r="H51" t="n" s="304">
-        <v>0.14448124499582318</v>
+        <v>0.8382857724850824</v>
       </c>
       <c r="I51" t="n" s="305">
-        <v>-1.6905599346158073</v>
+        <v>0.10000070323985699</v>
       </c>
     </row>
     <row r="52">
@@ -6568,28 +6568,28 @@
         <v>10231.0</v>
       </c>
       <c r="B52" t="n" s="298">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="C52" t="n" s="299">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="D52" t="n" s="300">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="E52" t="n" s="301">
         <v>51.0</v>
       </c>
       <c r="F52" t="n" s="302">
-        <v>0.7950946621550576</v>
+        <v>0.6714643965666838</v>
       </c>
       <c r="G52" t="n" s="303">
-        <v>-0.0980848621465695</v>
+        <v>-0.17840515142427654</v>
       </c>
       <c r="H52" t="n" s="304">
-        <v>0.7697517008698326</v>
+        <v>0.6786474130781719</v>
       </c>
       <c r="I52" t="n" s="305">
-        <v>-0.14794863721809634</v>
+        <v>-0.16424321956152127</v>
       </c>
     </row>
     <row r="53">
@@ -6597,28 +6597,28 @@
         <v>10232.0</v>
       </c>
       <c r="B53" t="n" s="298">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="C53" t="n" s="299">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="D53" t="n" s="300">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="E53" t="n" s="301">
         <v>52.0</v>
       </c>
       <c r="F53" t="n" s="302">
-        <v>0.14252874838862759</v>
+        <v>5.421582907613985</v>
       </c>
       <c r="G53" t="n" s="303">
-        <v>-1.7983739348188295</v>
+        <v>3.0312315041537827</v>
       </c>
       <c r="H53" t="n" s="304">
-        <v>0.14459124876495444</v>
+        <v>5.365714789416732</v>
       </c>
       <c r="I53" t="n" s="305">
-        <v>-1.7930225195044793</v>
+        <v>2.9994789286932053</v>
       </c>
     </row>
     <row r="54">
@@ -6626,28 +6626,28 @@
         <v>10233.0</v>
       </c>
       <c r="B54" t="n" s="298">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="C54" t="n" s="299">
+        <v>6.0</v>
+      </c>
+      <c r="D54" t="n" s="300">
         <v>4.0</v>
-      </c>
-      <c r="D54" t="n" s="300">
-        <v>2.0</v>
       </c>
       <c r="E54" t="n" s="301">
         <v>53.0</v>
       </c>
       <c r="F54" t="n" s="302">
-        <v>0.8495391108650381</v>
+        <v>0.46335226179504424</v>
       </c>
       <c r="G54" t="n" s="303">
-        <v>0.011829759350548447</v>
+        <v>-0.5494537543900289</v>
       </c>
       <c r="H54" t="n" s="304">
-        <v>0.843235165436912</v>
+        <v>0.45259821620390567</v>
       </c>
       <c r="I54" t="n" s="305">
-        <v>-0.019698296480765237</v>
+        <v>-0.5670113822831351</v>
       </c>
     </row>
     <row r="55">
@@ -6655,28 +6655,28 @@
         <v>10234.0</v>
       </c>
       <c r="B55" t="n" s="298">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="C55" t="n" s="299">
         <v>4.0</v>
       </c>
       <c r="D55" t="n" s="300">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="E55" t="n" s="301">
         <v>54.0</v>
       </c>
       <c r="F55" t="n" s="302">
-        <v>0.17585173511622554</v>
+        <v>0.06953492737981223</v>
       </c>
       <c r="G55" t="n" s="303">
-        <v>-1.614763178781234</v>
+        <v>-1.7989356649936823</v>
       </c>
       <c r="H55" t="n" s="304">
-        <v>0.17179086085722184</v>
+        <v>0.07300850568280653</v>
       </c>
       <c r="I55" t="n" s="305">
-        <v>-1.6396450345205968</v>
+        <v>-1.786399301950968</v>
       </c>
     </row>
     <row r="56">
@@ -6684,7 +6684,7 @@
         <v>10237.0</v>
       </c>
       <c r="B56" t="n" s="298">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C56" t="n" s="299">
         <v>5.0</v>
@@ -6696,16 +6696,16 @@
         <v>55.0</v>
       </c>
       <c r="F56" t="n" s="302">
-        <v>0.03232789105335026</v>
+        <v>0.06153719887357618</v>
       </c>
       <c r="G56" t="n" s="303">
-        <v>-2.180750861015797</v>
+        <v>-2.0781862619555396</v>
       </c>
       <c r="H56" t="n" s="304">
-        <v>0.030097022491076632</v>
+        <v>0.06307826372971566</v>
       </c>
       <c r="I56" t="n" s="305">
-        <v>-2.269743362852398</v>
+        <v>-2.0530191553311443</v>
       </c>
     </row>
     <row r="57">
@@ -6719,22 +6719,22 @@
         <v>5.0</v>
       </c>
       <c r="D57" t="n" s="300">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="E57" t="n" s="301">
         <v>56.0</v>
       </c>
       <c r="F57" t="n" s="302">
-        <v>0.1516376943717768</v>
+        <v>0.1817252759140534</v>
       </c>
       <c r="G57" t="n" s="303">
-        <v>-1.6160996255394644</v>
+        <v>-1.5048050611077102</v>
       </c>
       <c r="H57" t="n" s="304">
-        <v>0.14448124499582318</v>
+        <v>0.17548958092822872</v>
       </c>
       <c r="I57" t="n" s="305">
-        <v>-1.6905599346158073</v>
+        <v>-1.520221668598488</v>
       </c>
     </row>
     <row r="58">
@@ -6742,10 +6742,10 @@
         <v>10240.0</v>
       </c>
       <c r="B58" t="n" s="298">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="C58" t="n" s="299">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="D58" t="n" s="300">
         <v>2.0</v>
@@ -6754,16 +6754,16 @@
         <v>57.0</v>
       </c>
       <c r="F58" t="n" s="302">
-        <v>0.47563241960054586</v>
+        <v>0.7548260613030618</v>
       </c>
       <c r="G58" t="n" s="303">
-        <v>-0.7415686456274705</v>
+        <v>-0.1673085849427456</v>
       </c>
       <c r="H58" t="n" s="304">
-        <v>0.5060626145970675</v>
+        <v>0.7515020795430745</v>
       </c>
       <c r="I58" t="n" s="305">
-        <v>-0.6808867615427422</v>
+        <v>-0.17220567694566016</v>
       </c>
     </row>
     <row r="59">
@@ -6774,25 +6774,25 @@
         <v>1.0</v>
       </c>
       <c r="C59" t="n" s="299">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="D59" t="n" s="300">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="E59" t="n" s="301">
         <v>58.0</v>
       </c>
       <c r="F59" t="n" s="302">
-        <v>0.15296541203879213</v>
+        <v>3.074692095085466</v>
       </c>
       <c r="G59" t="n" s="303">
-        <v>-0.26275774350634173</v>
+        <v>1.888461479129073</v>
       </c>
       <c r="H59" t="n" s="304">
-        <v>0.17094569378154273</v>
+        <v>3.089698054229917</v>
       </c>
       <c r="I59" t="n" s="305">
-        <v>-0.2865100922872923</v>
+        <v>1.9032376648824356</v>
       </c>
     </row>
   </sheetData>
@@ -6862,34 +6862,34 @@
         <v>10169.0</v>
       </c>
       <c r="B2" t="n" s="313">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C2" t="n" s="314">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D2" t="n" s="315">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="E2" t="n" s="316">
-        <v>1.0</v>
+        <v>10169.0</v>
       </c>
       <c r="F2" t="n" s="317">
         <v>3.0</v>
       </c>
       <c r="G2" t="n" s="318">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
       <c r="H2" t="n" s="319">
         <v>21.0</v>
       </c>
       <c r="I2" t="n" s="320">
-        <v>-2.679324792100637</v>
+        <v>-0.8071144506354305</v>
       </c>
       <c r="J2" t="n" s="321">
-        <v>0.691175830718013</v>
+        <v>0.4733642248680837</v>
       </c>
       <c r="K2" t="n" s="322">
-        <v>0.8217021569900878</v>
+        <v>0.689183738953538</v>
       </c>
     </row>
     <row r="3">
@@ -6897,34 +6897,34 @@
         <v>10170.0</v>
       </c>
       <c r="B3" t="n" s="313">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C3" t="n" s="314">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="D3" t="n" s="315">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="E3" t="n" s="316">
-        <v>2.0</v>
+        <v>10170.0</v>
       </c>
       <c r="F3" t="n" s="317">
         <v>3.0</v>
       </c>
       <c r="G3" t="n" s="318">
-        <v>13.0</v>
+        <v>17.0</v>
       </c>
       <c r="H3" t="n" s="319">
         <v>21.0</v>
       </c>
       <c r="I3" t="n" s="320">
-        <v>0.08786756180539088</v>
+        <v>0.44052628594143195</v>
       </c>
       <c r="J3" t="n" s="321">
-        <v>0.6370590723433656</v>
+        <v>0.5481685936360786</v>
       </c>
       <c r="K3" t="n" s="322">
-        <v>0.8217021569900878</v>
+        <v>0.689183738953538</v>
       </c>
     </row>
     <row r="4">
@@ -6932,34 +6932,34 @@
         <v>10171.0</v>
       </c>
       <c r="B4" t="n" s="313">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C4" t="n" s="314">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="D4" t="n" s="315">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="E4" t="n" s="316">
-        <v>3.0</v>
+        <v>10171.0</v>
       </c>
       <c r="F4" t="n" s="317">
         <v>3.0</v>
       </c>
       <c r="G4" t="n" s="318">
-        <v>15.0</v>
+        <v>18.0</v>
       </c>
       <c r="H4" t="n" s="319">
         <v>21.0</v>
       </c>
       <c r="I4" t="n" s="320">
-        <v>0.8582958727581459</v>
+        <v>0.7357406959794778</v>
       </c>
       <c r="J4" t="n" s="321">
-        <v>0.6057745225651342</v>
+        <v>0.5918855054480142</v>
       </c>
       <c r="K4" t="n" s="322">
-        <v>0.8217021569900878</v>
+        <v>0.689183738953538</v>
       </c>
     </row>
     <row r="5">
@@ -6967,34 +6967,34 @@
         <v>10172.0</v>
       </c>
       <c r="B5" t="n" s="313">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C5" t="n" s="314">
         <v>5.0</v>
       </c>
       <c r="D5" t="n" s="315">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="E5" t="n" s="316">
-        <v>4.0</v>
+        <v>10172.0</v>
       </c>
       <c r="F5" t="n" s="317">
         <v>3.0</v>
       </c>
       <c r="G5" t="n" s="318">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="H5" t="n" s="319">
         <v>21.0</v>
       </c>
       <c r="I5" t="n" s="320">
-        <v>0.08786756180539088</v>
+        <v>-0.07604771059156139</v>
       </c>
       <c r="J5" t="n" s="321">
-        <v>0.6370590723433656</v>
+        <v>0.5075823220691572</v>
       </c>
       <c r="K5" t="n" s="322">
-        <v>0.8217021569900878</v>
+        <v>0.689183738953538</v>
       </c>
     </row>
     <row r="6">
@@ -7002,34 +7002,34 @@
         <v>10174.0</v>
       </c>
       <c r="B6" t="n" s="313">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="C6" t="n" s="314">
         <v>4.0</v>
       </c>
       <c r="D6" t="n" s="315">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="E6" t="n" s="316">
-        <v>5.0</v>
+        <v>10174.0</v>
       </c>
       <c r="F6" t="n" s="317">
         <v>3.0</v>
       </c>
       <c r="G6" t="n" s="318">
-        <v>8.0</v>
+        <v>12.0</v>
       </c>
       <c r="H6" t="n" s="319">
         <v>21.0</v>
       </c>
       <c r="I6" t="n" s="320">
-        <v>-1.7069950271721703</v>
+        <v>-0.8071144506354305</v>
       </c>
       <c r="J6" t="n" s="321">
-        <v>0.561571215376438</v>
+        <v>0.4733642248680837</v>
       </c>
       <c r="K6" t="n" s="322">
-        <v>0.8217021569900878</v>
+        <v>0.689183738953538</v>
       </c>
     </row>
     <row r="7">
@@ -7043,28 +7043,28 @@
         <v>6.0</v>
       </c>
       <c r="D7" t="n" s="315">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="E7" t="n" s="316">
-        <v>6.0</v>
+        <v>10175.0</v>
       </c>
       <c r="F7" t="n" s="317">
         <v>3.0</v>
       </c>
       <c r="G7" t="n" s="318">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
       <c r="H7" t="n" s="319">
         <v>21.0</v>
       </c>
       <c r="I7" t="n" s="320">
-        <v>1.5388514241325912</v>
+        <v>1.0956641887062777</v>
       </c>
       <c r="J7" t="n" s="321">
-        <v>0.6205594578948089</v>
+        <v>0.6707620446869234</v>
       </c>
       <c r="K7" t="n" s="322">
-        <v>0.8217021569900878</v>
+        <v>0.689183738953538</v>
       </c>
     </row>
     <row r="8">
@@ -7072,16 +7072,16 @@
         <v>10176.0</v>
       </c>
       <c r="B8" t="n" s="313">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="C8" t="n" s="314">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="D8" t="n" s="315">
         <v>3.0</v>
       </c>
       <c r="E8" t="n" s="316">
-        <v>7.0</v>
+        <v>10176.0</v>
       </c>
       <c r="F8" t="n" s="317">
         <v>3.0</v>
@@ -7093,13 +7093,13 @@
         <v>21.0</v>
       </c>
       <c r="I8" t="n" s="320">
-        <v>-0.3652430958294442</v>
+        <v>-0.8071144506354305</v>
       </c>
       <c r="J8" t="n" s="321">
-        <v>0.6328197884518687</v>
+        <v>0.4733642248680837</v>
       </c>
       <c r="K8" t="n" s="322">
-        <v>0.8217021569900878</v>
+        <v>0.689183738953538</v>
       </c>
     </row>
     <row r="9">
@@ -7107,34 +7107,34 @@
         <v>10178.0</v>
       </c>
       <c r="B9" t="n" s="313">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C9" t="n" s="314">
         <v>5.0</v>
       </c>
       <c r="D9" t="n" s="315">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="E9" t="n" s="316">
-        <v>8.0</v>
+        <v>10178.0</v>
       </c>
       <c r="F9" t="n" s="317">
         <v>3.0</v>
       </c>
       <c r="G9" t="n" s="318">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="H9" t="n" s="319">
         <v>21.0</v>
       </c>
       <c r="I9" t="n" s="320">
-        <v>0.08786756180539088</v>
+        <v>-0.07604771059156139</v>
       </c>
       <c r="J9" t="n" s="321">
-        <v>0.6370590723433656</v>
+        <v>0.5075823220691572</v>
       </c>
       <c r="K9" t="n" s="322">
-        <v>0.8217021569900878</v>
+        <v>0.689183738953538</v>
       </c>
     </row>
     <row r="10">
@@ -7142,34 +7142,34 @@
         <v>10179.0</v>
       </c>
       <c r="B10" t="n" s="313">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="C10" t="n" s="314">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="D10" t="n" s="315">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="E10" t="n" s="316">
-        <v>9.0</v>
+        <v>10179.0</v>
       </c>
       <c r="F10" t="n" s="317">
         <v>3.0</v>
       </c>
       <c r="G10" t="n" s="318">
-        <v>9.0</v>
+        <v>16.0</v>
       </c>
       <c r="H10" t="n" s="319">
         <v>21.0</v>
       </c>
       <c r="I10" t="n" s="320">
-        <v>-1.4199599680554051</v>
+        <v>0.1758193737030996</v>
       </c>
       <c r="J10" t="n" s="321">
-        <v>0.5632875865523973</v>
+        <v>0.5227683856600855</v>
       </c>
       <c r="K10" t="n" s="322">
-        <v>0.8217021569900878</v>
+        <v>0.689183738953538</v>
       </c>
     </row>
     <row r="11">
@@ -7177,34 +7177,34 @@
         <v>10181.0</v>
       </c>
       <c r="B11" t="n" s="313">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C11" t="n" s="314">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="D11" t="n" s="315">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="E11" t="n" s="316">
-        <v>10.0</v>
+        <v>10181.0</v>
       </c>
       <c r="F11" t="n" s="317">
         <v>3.0</v>
       </c>
       <c r="G11" t="n" s="318">
-        <v>13.0</v>
+        <v>11.0</v>
       </c>
       <c r="H11" t="n" s="319">
         <v>21.0</v>
       </c>
       <c r="I11" t="n" s="320">
-        <v>0.08786756180539088</v>
+        <v>-1.024394437751975</v>
       </c>
       <c r="J11" t="n" s="321">
-        <v>0.6370590723433656</v>
+        <v>0.4605120922688398</v>
       </c>
       <c r="K11" t="n" s="322">
-        <v>0.8217021569900878</v>
+        <v>0.689183738953538</v>
       </c>
     </row>
     <row r="12">
@@ -7215,31 +7215,31 @@
         <v>3.0</v>
       </c>
       <c r="C12" t="n" s="314">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="D12" t="n" s="315">
         <v>4.0</v>
       </c>
       <c r="E12" t="n" s="316">
-        <v>11.0</v>
+        <v>10183.0</v>
       </c>
       <c r="F12" t="n" s="317">
         <v>3.0</v>
       </c>
       <c r="G12" t="n" s="318">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="H12" t="n" s="319">
         <v>21.0</v>
       </c>
       <c r="I12" t="n" s="320">
-        <v>-1.1154465754524276</v>
+        <v>-0.8071144506354305</v>
       </c>
       <c r="J12" t="n" s="321">
-        <v>0.5784234717599437</v>
+        <v>0.4733642248680837</v>
       </c>
       <c r="K12" t="n" s="322">
-        <v>0.8217021569900878</v>
+        <v>0.689183738953538</v>
       </c>
     </row>
     <row r="13">
@@ -7250,31 +7250,31 @@
         <v>6.0</v>
       </c>
       <c r="C13" t="n" s="314">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="D13" t="n" s="315">
         <v>6.0</v>
       </c>
       <c r="E13" t="n" s="316">
-        <v>12.0</v>
+        <v>10184.0</v>
       </c>
       <c r="F13" t="n" s="317">
         <v>3.0</v>
       </c>
       <c r="G13" t="n" s="318">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="H13" t="n" s="319">
         <v>21.0</v>
       </c>
       <c r="I13" t="n" s="320">
-        <v>1.9090499338276763</v>
+        <v>1.0956641887062777</v>
       </c>
       <c r="J13" t="n" s="321">
-        <v>0.6590723678656504</v>
+        <v>0.6707620446869234</v>
       </c>
       <c r="K13" t="n" s="322">
-        <v>0.8217021569900878</v>
+        <v>0.689183738953538</v>
       </c>
     </row>
     <row r="14">
@@ -7282,7 +7282,7 @@
         <v>10185.0</v>
       </c>
       <c r="B14" t="n" s="313">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C14" t="n" s="314">
         <v>4.0</v>
@@ -7291,25 +7291,25 @@
         <v>4.0</v>
       </c>
       <c r="E14" t="n" s="316">
-        <v>13.0</v>
+        <v>10185.0</v>
       </c>
       <c r="F14" t="n" s="317">
         <v>3.0</v>
       </c>
       <c r="G14" t="n" s="318">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="H14" t="n" s="319">
         <v>21.0</v>
       </c>
       <c r="I14" t="n" s="320">
-        <v>-0.7729306605351103</v>
+        <v>-0.8071144506354305</v>
       </c>
       <c r="J14" t="n" s="321">
-        <v>0.6047680804692902</v>
+        <v>0.4733642248680837</v>
       </c>
       <c r="K14" t="n" s="322">
-        <v>0.8217021569900878</v>
+        <v>0.689183738953538</v>
       </c>
     </row>
     <row r="15">
@@ -7317,34 +7317,34 @@
         <v>10186.0</v>
       </c>
       <c r="B15" t="n" s="313">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="C15" t="n" s="314">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="D15" t="n" s="315">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="E15" t="n" s="316">
-        <v>14.0</v>
+        <v>10186.0</v>
       </c>
       <c r="F15" t="n" s="317">
         <v>3.0</v>
       </c>
       <c r="G15" t="n" s="318">
-        <v>12.0</v>
+        <v>17.0</v>
       </c>
       <c r="H15" t="n" s="319">
         <v>21.0</v>
       </c>
       <c r="I15" t="n" s="320">
-        <v>-0.3652430958294442</v>
+        <v>0.44052628594143195</v>
       </c>
       <c r="J15" t="n" s="321">
-        <v>0.6328197884518687</v>
+        <v>0.5481685936360786</v>
       </c>
       <c r="K15" t="n" s="322">
-        <v>0.8217021569900878</v>
+        <v>0.689183738953538</v>
       </c>
     </row>
     <row r="16">
@@ -7352,16 +7352,16 @@
         <v>10187.0</v>
       </c>
       <c r="B16" t="n" s="313">
+        <v>4.0</v>
+      </c>
+      <c r="C16" t="n" s="314">
         <v>5.0</v>
-      </c>
-      <c r="C16" t="n" s="314">
-        <v>4.0</v>
       </c>
       <c r="D16" t="n" s="315">
         <v>5.0</v>
       </c>
       <c r="E16" t="n" s="316">
-        <v>15.0</v>
+        <v>10187.0</v>
       </c>
       <c r="F16" t="n" s="317">
         <v>3.0</v>
@@ -7373,13 +7373,13 @@
         <v>21.0</v>
       </c>
       <c r="I16" t="n" s="320">
-        <v>0.49845433044713733</v>
+        <v>-0.3246338035754203</v>
       </c>
       <c r="J16" t="n" s="321">
-        <v>0.6197029280292287</v>
+        <v>0.4969685627088814</v>
       </c>
       <c r="K16" t="n" s="322">
-        <v>0.8217021569900878</v>
+        <v>0.689183738953538</v>
       </c>
     </row>
     <row r="17">
@@ -7390,31 +7390,31 @@
         <v>4.0</v>
       </c>
       <c r="C17" t="n" s="314">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D17" t="n" s="315">
         <v>4.0</v>
       </c>
       <c r="E17" t="n" s="316">
-        <v>16.0</v>
+        <v>10188.0</v>
       </c>
       <c r="F17" t="n" s="317">
         <v>3.0</v>
       </c>
       <c r="G17" t="n" s="318">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="H17" t="n" s="319">
         <v>21.0</v>
       </c>
       <c r="I17" t="n" s="320">
-        <v>-0.3652430958294442</v>
+        <v>-0.5710388437252585</v>
       </c>
       <c r="J17" t="n" s="321">
-        <v>0.6328197884518687</v>
+        <v>0.4862275628588453</v>
       </c>
       <c r="K17" t="n" s="322">
-        <v>0.8217021569900878</v>
+        <v>0.689183738953538</v>
       </c>
     </row>
     <row r="18">
@@ -7428,28 +7428,28 @@
         <v>1.0</v>
       </c>
       <c r="D18" t="n" s="315">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="E18" t="n" s="316">
-        <v>17.0</v>
+        <v>10189.0</v>
       </c>
       <c r="F18" t="n" s="317">
         <v>3.0</v>
       </c>
       <c r="G18" t="n" s="318">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="H18" t="n" s="319">
         <v>21.0</v>
       </c>
       <c r="I18" t="n" s="320">
-        <v>-4.437860808491842</v>
+        <v>-2.1957042986393382</v>
       </c>
       <c r="J18" t="n" s="321">
-        <v>1.495126684381312</v>
+        <v>0.5443490165119339</v>
       </c>
       <c r="K18" t="n" s="322">
-        <v>0.8217021569900878</v>
+        <v>0.689183738953538</v>
       </c>
     </row>
     <row r="19">
@@ -7457,34 +7457,34 @@
         <v>10190.0</v>
       </c>
       <c r="B19" t="n" s="313">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="C19" t="n" s="314">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="D19" t="n" s="315">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="E19" t="n" s="316">
+        <v>10190.0</v>
+      </c>
+      <c r="F19" t="n" s="317">
+        <v>3.0</v>
+      </c>
+      <c r="G19" t="n" s="318">
         <v>18.0</v>
-      </c>
-      <c r="F19" t="n" s="317">
-        <v>3.0</v>
-      </c>
-      <c r="G19" t="n" s="318">
-        <v>17.0</v>
       </c>
       <c r="H19" t="n" s="319">
         <v>21.0</v>
       </c>
       <c r="I19" t="n" s="320">
-        <v>1.5388514241325912</v>
+        <v>0.7357406959794778</v>
       </c>
       <c r="J19" t="n" s="321">
-        <v>0.6205594578948089</v>
+        <v>0.5918855054480142</v>
       </c>
       <c r="K19" t="n" s="322">
-        <v>0.8217021569900878</v>
+        <v>0.689183738953538</v>
       </c>
     </row>
     <row r="20">
@@ -7492,34 +7492,34 @@
         <v>10191.0</v>
       </c>
       <c r="B20" t="n" s="313">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C20" t="n" s="314">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="D20" t="n" s="315">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="E20" t="n" s="316">
+        <v>10191.0</v>
+      </c>
+      <c r="F20" t="n" s="317">
+        <v>3.0</v>
+      </c>
+      <c r="G20" t="n" s="318">
         <v>19.0</v>
-      </c>
-      <c r="F20" t="n" s="317">
-        <v>3.0</v>
-      </c>
-      <c r="G20" t="n" s="318">
-        <v>15.0</v>
       </c>
       <c r="H20" t="n" s="319">
         <v>21.0</v>
       </c>
       <c r="I20" t="n" s="320">
-        <v>0.8582958727581459</v>
+        <v>1.0956641887062777</v>
       </c>
       <c r="J20" t="n" s="321">
-        <v>0.6057745225651342</v>
+        <v>0.6707620446869234</v>
       </c>
       <c r="K20" t="n" s="322">
-        <v>0.8217021569900878</v>
+        <v>0.689183738953538</v>
       </c>
     </row>
     <row r="21">
@@ -7536,7 +7536,7 @@
         <v>7.0</v>
       </c>
       <c r="E21" t="n" s="316">
-        <v>20.0</v>
+        <v>10192.0</v>
       </c>
       <c r="F21" t="n" s="317">
         <v>3.0</v>
@@ -7548,13 +7548,13 @@
         <v>21.0</v>
       </c>
       <c r="I21" t="n" s="320">
-        <v>4.140739408145375</v>
+        <v>2.6889961188816742</v>
       </c>
       <c r="J21" t="n" s="321">
-        <v>1.509654280747686</v>
+        <v>1.4154691680162743</v>
       </c>
       <c r="K21" t="n" s="322">
-        <v>0.8217021569900878</v>
+        <v>0.689183738953538</v>
       </c>
     </row>
     <row r="22">
@@ -7562,16 +7562,16 @@
         <v>10193.0</v>
       </c>
       <c r="B22" t="n" s="313">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="C22" t="n" s="314">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="D22" t="n" s="315">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="E22" t="n" s="316">
-        <v>21.0</v>
+        <v>10193.0</v>
       </c>
       <c r="F22" t="n" s="317">
         <v>3.0</v>
@@ -7583,13 +7583,13 @@
         <v>21.0</v>
       </c>
       <c r="I22" t="n" s="320">
-        <v>-1.7069950271721703</v>
+        <v>-1.5892360279087836</v>
       </c>
       <c r="J22" t="n" s="321">
-        <v>0.561571215376438</v>
+        <v>0.45129686392186463</v>
       </c>
       <c r="K22" t="n" s="322">
-        <v>0.8217021569900878</v>
+        <v>0.689183738953538</v>
       </c>
     </row>
     <row r="23">
@@ -7600,31 +7600,31 @@
         <v>4.0</v>
       </c>
       <c r="C23" t="n" s="314">
+        <v>2.0</v>
+      </c>
+      <c r="D23" t="n" s="315">
         <v>4.0</v>
       </c>
-      <c r="D23" t="n" s="315">
-        <v>5.0</v>
-      </c>
       <c r="E23" t="n" s="316">
-        <v>22.0</v>
+        <v>10196.0</v>
       </c>
       <c r="F23" t="n" s="317">
         <v>3.0</v>
       </c>
       <c r="G23" t="n" s="318">
-        <v>13.0</v>
+        <v>10.0</v>
       </c>
       <c r="H23" t="n" s="319">
         <v>21.0</v>
       </c>
       <c r="I23" t="n" s="320">
-        <v>0.08786756180539088</v>
+        <v>-1.2229836458076688</v>
       </c>
       <c r="J23" t="n" s="321">
-        <v>0.6370590723433656</v>
+        <v>0.45108481276612244</v>
       </c>
       <c r="K23" t="n" s="322">
-        <v>0.8217021569900878</v>
+        <v>0.689183738953538</v>
       </c>
     </row>
     <row r="24">
@@ -7632,34 +7632,34 @@
         <v>10197.0</v>
       </c>
       <c r="B24" t="n" s="313">
+        <v>3.0</v>
+      </c>
+      <c r="C24" t="n" s="314">
         <v>4.0</v>
       </c>
-      <c r="C24" t="n" s="314">
-        <v>3.0</v>
-      </c>
       <c r="D24" t="n" s="315">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="E24" t="n" s="316">
-        <v>23.0</v>
+        <v>10197.0</v>
       </c>
       <c r="F24" t="n" s="317">
         <v>3.0</v>
       </c>
       <c r="G24" t="n" s="318">
-        <v>10.0</v>
+        <v>13.0</v>
       </c>
       <c r="H24" t="n" s="319">
         <v>21.0</v>
       </c>
       <c r="I24" t="n" s="320">
-        <v>-1.1154465754524276</v>
+        <v>-0.5710388437252585</v>
       </c>
       <c r="J24" t="n" s="321">
-        <v>0.5784234717599437</v>
+        <v>0.4862275628588453</v>
       </c>
       <c r="K24" t="n" s="322">
-        <v>0.8217021569900878</v>
+        <v>0.689183738953538</v>
       </c>
     </row>
     <row r="25">
@@ -7676,7 +7676,7 @@
         <v>7.0</v>
       </c>
       <c r="E25" t="n" s="316">
-        <v>24.0</v>
+        <v>10198.0</v>
       </c>
       <c r="F25" t="n" s="317">
         <v>3.0</v>
@@ -7688,13 +7688,13 @@
         <v>21.0</v>
       </c>
       <c r="I25" t="n" s="320">
-        <v>4.140739408145375</v>
+        <v>2.6889961188816742</v>
       </c>
       <c r="J25" t="n" s="321">
-        <v>1.509654280747686</v>
+        <v>1.4154691680162743</v>
       </c>
       <c r="K25" t="n" s="322">
-        <v>0.8217021569900878</v>
+        <v>0.689183738953538</v>
       </c>
     </row>
     <row r="26">
@@ -7705,31 +7705,31 @@
         <v>4.0</v>
       </c>
       <c r="C26" t="n" s="314">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="D26" t="n" s="315">
         <v>5.0</v>
       </c>
       <c r="E26" t="n" s="316">
-        <v>25.0</v>
+        <v>10200.0</v>
       </c>
       <c r="F26" t="n" s="317">
         <v>3.0</v>
       </c>
       <c r="G26" t="n" s="318">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="H26" t="n" s="319">
         <v>21.0</v>
       </c>
       <c r="I26" t="n" s="320">
-        <v>0.08786756180539088</v>
+        <v>-0.07604771059156139</v>
       </c>
       <c r="J26" t="n" s="321">
-        <v>0.6370590723433656</v>
+        <v>0.5075823220691572</v>
       </c>
       <c r="K26" t="n" s="322">
-        <v>0.8217021569900878</v>
+        <v>0.689183738953538</v>
       </c>
     </row>
     <row r="27">
@@ -7737,7 +7737,7 @@
         <v>10201.0</v>
       </c>
       <c r="B27" t="n" s="313">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="C27" t="n" s="314">
         <v>6.0</v>
@@ -7746,25 +7746,25 @@
         <v>6.0</v>
       </c>
       <c r="E27" t="n" s="316">
-        <v>26.0</v>
+        <v>10201.0</v>
       </c>
       <c r="F27" t="n" s="317">
         <v>3.0</v>
       </c>
       <c r="G27" t="n" s="318">
-        <v>15.0</v>
+        <v>18.0</v>
       </c>
       <c r="H27" t="n" s="319">
         <v>21.0</v>
       </c>
       <c r="I27" t="n" s="320">
-        <v>0.8582958727581459</v>
+        <v>0.7357406959794778</v>
       </c>
       <c r="J27" t="n" s="321">
-        <v>0.6057745225651342</v>
+        <v>0.5918855054480142</v>
       </c>
       <c r="K27" t="n" s="322">
-        <v>0.8217021569900878</v>
+        <v>0.689183738953538</v>
       </c>
     </row>
     <row r="28">
@@ -7772,34 +7772,34 @@
         <v>10202.0</v>
       </c>
       <c r="B28" t="n" s="313">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C28" t="n" s="314">
         <v>5.0</v>
       </c>
       <c r="D28" t="n" s="315">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="E28" t="n" s="316">
-        <v>27.0</v>
+        <v>10202.0</v>
       </c>
       <c r="F28" t="n" s="317">
         <v>3.0</v>
       </c>
       <c r="G28" t="n" s="318">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="H28" t="n" s="319">
         <v>21.0</v>
       </c>
       <c r="I28" t="n" s="320">
-        <v>0.08786756180539088</v>
+        <v>-0.07604771059156139</v>
       </c>
       <c r="J28" t="n" s="321">
-        <v>0.6370590723433656</v>
+        <v>0.5075823220691572</v>
       </c>
       <c r="K28" t="n" s="322">
-        <v>0.8217021569900878</v>
+        <v>0.689183738953538</v>
       </c>
     </row>
     <row r="29">
@@ -7816,7 +7816,7 @@
         <v>7.0</v>
       </c>
       <c r="E29" t="n" s="316">
-        <v>28.0</v>
+        <v>10203.0</v>
       </c>
       <c r="F29" t="n" s="317">
         <v>3.0</v>
@@ -7828,13 +7828,13 @@
         <v>21.0</v>
       </c>
       <c r="I29" t="n" s="320">
-        <v>4.140739408145375</v>
+        <v>2.6889961188816742</v>
       </c>
       <c r="J29" t="n" s="321">
-        <v>1.509654280747686</v>
+        <v>1.4154691680162743</v>
       </c>
       <c r="K29" t="n" s="322">
-        <v>0.8217021569900878</v>
+        <v>0.689183738953538</v>
       </c>
     </row>
     <row r="30">
@@ -7842,34 +7842,34 @@
         <v>10204.0</v>
       </c>
       <c r="B30" t="n" s="313">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="C30" t="n" s="314">
         <v>7.0</v>
       </c>
       <c r="D30" t="n" s="315">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="E30" t="n" s="316">
-        <v>29.0</v>
+        <v>10204.0</v>
       </c>
       <c r="F30" t="n" s="317">
         <v>3.0</v>
       </c>
       <c r="G30" t="n" s="318">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="H30" t="n" s="319">
         <v>21.0</v>
       </c>
       <c r="I30" t="n" s="320">
-        <v>1.9090499338276763</v>
+        <v>1.0956641887062777</v>
       </c>
       <c r="J30" t="n" s="321">
-        <v>0.6590723678656504</v>
+        <v>0.6707620446869234</v>
       </c>
       <c r="K30" t="n" s="322">
-        <v>0.8217021569900878</v>
+        <v>0.689183738953538</v>
       </c>
     </row>
     <row r="31">
@@ -7880,31 +7880,31 @@
         <v>4.0</v>
       </c>
       <c r="C31" t="n" s="314">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="D31" t="n" s="315">
         <v>5.0</v>
       </c>
       <c r="E31" t="n" s="316">
-        <v>30.0</v>
+        <v>10206.0</v>
       </c>
       <c r="F31" t="n" s="317">
         <v>3.0</v>
       </c>
       <c r="G31" t="n" s="318">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="H31" t="n" s="319">
         <v>21.0</v>
       </c>
       <c r="I31" t="n" s="320">
-        <v>0.08786756180539088</v>
+        <v>-0.07604771059156139</v>
       </c>
       <c r="J31" t="n" s="321">
-        <v>0.6370590723433656</v>
+        <v>0.5075823220691572</v>
       </c>
       <c r="K31" t="n" s="322">
-        <v>0.8217021569900878</v>
+        <v>0.689183738953538</v>
       </c>
     </row>
     <row r="32">
@@ -7912,7 +7912,7 @@
         <v>10208.0</v>
       </c>
       <c r="B32" t="n" s="313">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C32" t="n" s="314">
         <v>5.0</v>
@@ -7921,25 +7921,25 @@
         <v>4.0</v>
       </c>
       <c r="E32" t="n" s="316">
-        <v>31.0</v>
+        <v>10208.0</v>
       </c>
       <c r="F32" t="n" s="317">
         <v>3.0</v>
       </c>
       <c r="G32" t="n" s="318">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="H32" t="n" s="319">
         <v>21.0</v>
       </c>
       <c r="I32" t="n" s="320">
-        <v>0.08786756180539088</v>
+        <v>-0.3246338035754203</v>
       </c>
       <c r="J32" t="n" s="321">
-        <v>0.6370590723433656</v>
+        <v>0.4969685627088814</v>
       </c>
       <c r="K32" t="n" s="322">
-        <v>0.8217021569900878</v>
+        <v>0.689183738953538</v>
       </c>
     </row>
     <row r="33">
@@ -7947,16 +7947,16 @@
         <v>10209.0</v>
       </c>
       <c r="B33" t="n" s="313">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="C33" t="n" s="314">
         <v>1.0</v>
       </c>
       <c r="D33" t="n" s="315">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="E33" t="n" s="316">
-        <v>32.0</v>
+        <v>10209.0</v>
       </c>
       <c r="F33" t="n" s="317">
         <v>3.0</v>
@@ -7968,13 +7968,13 @@
         <v>21.0</v>
       </c>
       <c r="I33" t="n" s="320">
-        <v>-2.304311272284869</v>
+        <v>-1.9685531480569856</v>
       </c>
       <c r="J33" t="n" s="321">
-        <v>0.6135040775837708</v>
+        <v>0.492608528728863</v>
       </c>
       <c r="K33" t="n" s="322">
-        <v>0.8217021569900878</v>
+        <v>0.689183738953538</v>
       </c>
     </row>
     <row r="34">
@@ -7982,34 +7982,34 @@
         <v>10210.0</v>
       </c>
       <c r="B34" t="n" s="313">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="C34" t="n" s="314">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="D34" t="n" s="315">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="E34" t="n" s="316">
-        <v>33.0</v>
+        <v>10210.0</v>
       </c>
       <c r="F34" t="n" s="317">
         <v>3.0</v>
       </c>
       <c r="G34" t="n" s="318">
-        <v>12.0</v>
+        <v>10.0</v>
       </c>
       <c r="H34" t="n" s="319">
         <v>21.0</v>
       </c>
       <c r="I34" t="n" s="320">
-        <v>-0.3652430958294442</v>
+        <v>-1.2229836458076688</v>
       </c>
       <c r="J34" t="n" s="321">
-        <v>0.6328197884518687</v>
+        <v>0.45108481276612244</v>
       </c>
       <c r="K34" t="n" s="322">
-        <v>0.8217021569900878</v>
+        <v>0.689183738953538</v>
       </c>
     </row>
     <row r="35">
@@ -8017,34 +8017,34 @@
         <v>10211.0</v>
       </c>
       <c r="B35" t="n" s="313">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C35" t="n" s="314">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D35" t="n" s="315">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E35" t="n" s="316">
-        <v>34.0</v>
+        <v>10211.0</v>
       </c>
       <c r="F35" t="n" s="317">
         <v>3.0</v>
       </c>
       <c r="G35" t="n" s="318">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="H35" t="n" s="319">
         <v>21.0</v>
       </c>
       <c r="I35" t="n" s="320">
-        <v>-1.9941110897819814</v>
+        <v>-1.5892360279087836</v>
       </c>
       <c r="J35" t="n" s="321">
-        <v>0.576074819348327</v>
+        <v>0.45129686392186463</v>
       </c>
       <c r="K35" t="n" s="322">
-        <v>0.8217021569900878</v>
+        <v>0.689183738953538</v>
       </c>
     </row>
     <row r="36">
@@ -8052,34 +8052,34 @@
         <v>10212.0</v>
       </c>
       <c r="B36" t="n" s="313">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C36" t="n" s="314">
+        <v>4.0</v>
+      </c>
+      <c r="D36" t="n" s="315">
         <v>5.0</v>
       </c>
-      <c r="D36" t="n" s="315">
-        <v>2.0</v>
-      </c>
       <c r="E36" t="n" s="316">
-        <v>35.0</v>
+        <v>10212.0</v>
       </c>
       <c r="F36" t="n" s="317">
         <v>3.0</v>
       </c>
       <c r="G36" t="n" s="318">
-        <v>10.0</v>
+        <v>14.0</v>
       </c>
       <c r="H36" t="n" s="319">
         <v>21.0</v>
       </c>
       <c r="I36" t="n" s="320">
-        <v>-1.1154465754524276</v>
+        <v>-0.3246338035754203</v>
       </c>
       <c r="J36" t="n" s="321">
-        <v>0.5784234717599437</v>
+        <v>0.4969685627088814</v>
       </c>
       <c r="K36" t="n" s="322">
-        <v>0.8217021569900878</v>
+        <v>0.689183738953538</v>
       </c>
     </row>
     <row r="37">
@@ -8087,34 +8087,34 @@
         <v>10213.0</v>
       </c>
       <c r="B37" t="n" s="313">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="C37" t="n" s="314">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="D37" t="n" s="315">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="E37" t="n" s="316">
-        <v>36.0</v>
+        <v>10213.0</v>
       </c>
       <c r="F37" t="n" s="317">
         <v>3.0</v>
       </c>
       <c r="G37" t="n" s="318">
-        <v>12.0</v>
+        <v>17.0</v>
       </c>
       <c r="H37" t="n" s="319">
         <v>21.0</v>
       </c>
       <c r="I37" t="n" s="320">
-        <v>-0.3652430958294442</v>
+        <v>0.44052628594143195</v>
       </c>
       <c r="J37" t="n" s="321">
-        <v>0.6328197884518687</v>
+        <v>0.5481685936360786</v>
       </c>
       <c r="K37" t="n" s="322">
-        <v>0.8217021569900878</v>
+        <v>0.689183738953538</v>
       </c>
     </row>
     <row r="38">
@@ -8122,34 +8122,34 @@
         <v>10214.0</v>
       </c>
       <c r="B38" t="n" s="313">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C38" t="n" s="314">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D38" t="n" s="315">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="E38" t="n" s="316">
-        <v>37.0</v>
+        <v>10214.0</v>
       </c>
       <c r="F38" t="n" s="317">
         <v>3.0</v>
       </c>
       <c r="G38" t="n" s="318">
-        <v>11.0</v>
+        <v>14.0</v>
       </c>
       <c r="H38" t="n" s="319">
         <v>21.0</v>
       </c>
       <c r="I38" t="n" s="320">
-        <v>-0.7729306605351103</v>
+        <v>-0.3246338035754203</v>
       </c>
       <c r="J38" t="n" s="321">
-        <v>0.6047680804692902</v>
+        <v>0.4969685627088814</v>
       </c>
       <c r="K38" t="n" s="322">
-        <v>0.8217021569900878</v>
+        <v>0.689183738953538</v>
       </c>
     </row>
     <row r="39">
@@ -8157,16 +8157,16 @@
         <v>10215.0</v>
       </c>
       <c r="B39" t="n" s="313">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="C39" t="n" s="314">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="D39" t="n" s="315">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="E39" t="n" s="316">
-        <v>38.0</v>
+        <v>10215.0</v>
       </c>
       <c r="F39" t="n" s="317">
         <v>3.0</v>
@@ -8178,13 +8178,13 @@
         <v>21.0</v>
       </c>
       <c r="I39" t="n" s="320">
-        <v>1.1968122044955534</v>
+        <v>0.1758193737030996</v>
       </c>
       <c r="J39" t="n" s="321">
-        <v>0.6048293089260062</v>
+        <v>0.5227683856600855</v>
       </c>
       <c r="K39" t="n" s="322">
-        <v>0.8217021569900878</v>
+        <v>0.689183738953538</v>
       </c>
     </row>
     <row r="40">
@@ -8192,34 +8192,34 @@
         <v>10216.0</v>
       </c>
       <c r="B40" t="n" s="313">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="C40" t="n" s="314">
         <v>7.0</v>
       </c>
       <c r="D40" t="n" s="315">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="E40" t="n" s="316">
-        <v>39.0</v>
+        <v>10216.0</v>
       </c>
       <c r="F40" t="n" s="317">
         <v>3.0</v>
       </c>
       <c r="G40" t="n" s="318">
-        <v>17.0</v>
+        <v>21.0</v>
       </c>
       <c r="H40" t="n" s="319">
         <v>21.0</v>
       </c>
       <c r="I40" t="n" s="320">
-        <v>1.5388514241325912</v>
+        <v>2.6889961188816742</v>
       </c>
       <c r="J40" t="n" s="321">
-        <v>0.6205594578948089</v>
+        <v>1.4154691680162743</v>
       </c>
       <c r="K40" t="n" s="322">
-        <v>0.8217021569900878</v>
+        <v>0.689183738953538</v>
       </c>
     </row>
     <row r="41">
@@ -8227,7 +8227,7 @@
         <v>10217.0</v>
       </c>
       <c r="B41" t="n" s="313">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="C41" t="n" s="314">
         <v>6.0</v>
@@ -8236,25 +8236,25 @@
         <v>6.0</v>
       </c>
       <c r="E41" t="n" s="316">
-        <v>40.0</v>
+        <v>10217.0</v>
       </c>
       <c r="F41" t="n" s="317">
         <v>3.0</v>
       </c>
       <c r="G41" t="n" s="318">
-        <v>16.0</v>
+        <v>18.0</v>
       </c>
       <c r="H41" t="n" s="319">
         <v>21.0</v>
       </c>
       <c r="I41" t="n" s="320">
-        <v>1.1968122044955534</v>
+        <v>0.7357406959794778</v>
       </c>
       <c r="J41" t="n" s="321">
-        <v>0.6048293089260062</v>
+        <v>0.5918855054480142</v>
       </c>
       <c r="K41" t="n" s="322">
-        <v>0.8217021569900878</v>
+        <v>0.689183738953538</v>
       </c>
     </row>
     <row r="42">
@@ -8262,34 +8262,34 @@
         <v>10218.0</v>
       </c>
       <c r="B42" t="n" s="313">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C42" t="n" s="314">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="D42" t="n" s="315">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="E42" t="n" s="316">
-        <v>41.0</v>
+        <v>10218.0</v>
       </c>
       <c r="F42" t="n" s="317">
         <v>3.0</v>
       </c>
       <c r="G42" t="n" s="318">
-        <v>14.0</v>
+        <v>19.0</v>
       </c>
       <c r="H42" t="n" s="319">
         <v>21.0</v>
       </c>
       <c r="I42" t="n" s="320">
-        <v>0.49845433044713733</v>
+        <v>1.0956641887062777</v>
       </c>
       <c r="J42" t="n" s="321">
-        <v>0.6197029280292287</v>
+        <v>0.6707620446869234</v>
       </c>
       <c r="K42" t="n" s="322">
-        <v>0.8217021569900878</v>
+        <v>0.689183738953538</v>
       </c>
     </row>
     <row r="43">
@@ -8297,34 +8297,34 @@
         <v>10219.0</v>
       </c>
       <c r="B43" t="n" s="313">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="C43" t="n" s="314">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="D43" t="n" s="315">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E43" t="n" s="316">
-        <v>42.0</v>
+        <v>10219.0</v>
       </c>
       <c r="F43" t="n" s="317">
         <v>3.0</v>
       </c>
       <c r="G43" t="n" s="318">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="H43" t="n" s="319">
         <v>21.0</v>
       </c>
       <c r="I43" t="n" s="320">
-        <v>-1.4199599680554051</v>
+        <v>-1.5892360279087836</v>
       </c>
       <c r="J43" t="n" s="321">
-        <v>0.5632875865523973</v>
+        <v>0.45129686392186463</v>
       </c>
       <c r="K43" t="n" s="322">
-        <v>0.8217021569900878</v>
+        <v>0.689183738953538</v>
       </c>
     </row>
     <row r="44">
@@ -8341,7 +8341,7 @@
         <v>7.0</v>
       </c>
       <c r="E44" t="n" s="316">
-        <v>43.0</v>
+        <v>10220.0</v>
       </c>
       <c r="F44" t="n" s="317">
         <v>3.0</v>
@@ -8353,13 +8353,13 @@
         <v>21.0</v>
       </c>
       <c r="I44" t="n" s="320">
-        <v>4.140739408145375</v>
+        <v>2.6889961188816742</v>
       </c>
       <c r="J44" t="n" s="321">
-        <v>1.509654280747686</v>
+        <v>1.4154691680162743</v>
       </c>
       <c r="K44" t="n" s="322">
-        <v>0.8217021569900878</v>
+        <v>0.689183738953538</v>
       </c>
     </row>
     <row r="45">
@@ -8367,34 +8367,34 @@
         <v>10221.0</v>
       </c>
       <c r="B45" t="n" s="313">
+        <v>6.0</v>
+      </c>
+      <c r="C45" t="n" s="314">
         <v>4.0</v>
       </c>
-      <c r="C45" t="n" s="314">
+      <c r="D45" t="n" s="315">
         <v>6.0</v>
       </c>
-      <c r="D45" t="n" s="315">
-        <v>3.0</v>
-      </c>
       <c r="E45" t="n" s="316">
-        <v>44.0</v>
+        <v>10221.0</v>
       </c>
       <c r="F45" t="n" s="317">
         <v>3.0</v>
       </c>
       <c r="G45" t="n" s="318">
-        <v>13.0</v>
+        <v>16.0</v>
       </c>
       <c r="H45" t="n" s="319">
         <v>21.0</v>
       </c>
       <c r="I45" t="n" s="320">
-        <v>0.08786756180539088</v>
+        <v>0.1758193737030996</v>
       </c>
       <c r="J45" t="n" s="321">
-        <v>0.6370590723433656</v>
+        <v>0.5227683856600855</v>
       </c>
       <c r="K45" t="n" s="322">
-        <v>0.8217021569900878</v>
+        <v>0.689183738953538</v>
       </c>
     </row>
     <row r="46">
@@ -8402,16 +8402,16 @@
         <v>10223.0</v>
       </c>
       <c r="B46" t="n" s="313">
+        <v>4.0</v>
+      </c>
+      <c r="C46" t="n" s="314">
         <v>2.0</v>
-      </c>
-      <c r="C46" t="n" s="314">
-        <v>4.0</v>
       </c>
       <c r="D46" t="n" s="315">
         <v>2.0</v>
       </c>
       <c r="E46" t="n" s="316">
-        <v>45.0</v>
+        <v>10223.0</v>
       </c>
       <c r="F46" t="n" s="317">
         <v>3.0</v>
@@ -8423,13 +8423,13 @@
         <v>21.0</v>
       </c>
       <c r="I46" t="n" s="320">
-        <v>-1.7069950271721703</v>
+        <v>-1.5892360279087836</v>
       </c>
       <c r="J46" t="n" s="321">
-        <v>0.561571215376438</v>
+        <v>0.45129686392186463</v>
       </c>
       <c r="K46" t="n" s="322">
-        <v>0.8217021569900878</v>
+        <v>0.689183738953538</v>
       </c>
     </row>
     <row r="47">
@@ -8440,31 +8440,31 @@
         <v>4.0</v>
       </c>
       <c r="C47" t="n" s="314">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="D47" t="n" s="315">
         <v>6.0</v>
       </c>
       <c r="E47" t="n" s="316">
-        <v>46.0</v>
+        <v>10224.0</v>
       </c>
       <c r="F47" t="n" s="317">
         <v>3.0</v>
       </c>
       <c r="G47" t="n" s="318">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="H47" t="n" s="319">
         <v>21.0</v>
       </c>
       <c r="I47" t="n" s="320">
-        <v>0.49845433044713733</v>
+        <v>0.1758193737030996</v>
       </c>
       <c r="J47" t="n" s="321">
-        <v>0.6197029280292287</v>
+        <v>0.5227683856600855</v>
       </c>
       <c r="K47" t="n" s="322">
-        <v>0.8217021569900878</v>
+        <v>0.689183738953538</v>
       </c>
     </row>
     <row r="48">
@@ -8472,34 +8472,34 @@
         <v>10226.0</v>
       </c>
       <c r="B48" t="n" s="313">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="C48" t="n" s="314">
         <v>6.0</v>
       </c>
       <c r="D48" t="n" s="315">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="E48" t="n" s="316">
-        <v>47.0</v>
+        <v>10226.0</v>
       </c>
       <c r="F48" t="n" s="317">
         <v>3.0</v>
       </c>
       <c r="G48" t="n" s="318">
-        <v>15.0</v>
+        <v>18.0</v>
       </c>
       <c r="H48" t="n" s="319">
         <v>21.0</v>
       </c>
       <c r="I48" t="n" s="320">
-        <v>0.8582958727581459</v>
+        <v>0.7357406959794778</v>
       </c>
       <c r="J48" t="n" s="321">
-        <v>0.6057745225651342</v>
+        <v>0.5918855054480142</v>
       </c>
       <c r="K48" t="n" s="322">
-        <v>0.8217021569900878</v>
+        <v>0.689183738953538</v>
       </c>
     </row>
     <row r="49">
@@ -8516,7 +8516,7 @@
         <v>6.0</v>
       </c>
       <c r="E49" t="n" s="316">
-        <v>48.0</v>
+        <v>10227.0</v>
       </c>
       <c r="F49" t="n" s="317">
         <v>3.0</v>
@@ -8528,13 +8528,13 @@
         <v>21.0</v>
       </c>
       <c r="I49" t="n" s="320">
-        <v>1.9090499338276763</v>
+        <v>0.7357406959794778</v>
       </c>
       <c r="J49" t="n" s="321">
-        <v>0.6590723678656504</v>
+        <v>0.5918855054480142</v>
       </c>
       <c r="K49" t="n" s="322">
-        <v>0.8217021569900878</v>
+        <v>0.689183738953538</v>
       </c>
     </row>
     <row r="50">
@@ -8545,31 +8545,31 @@
         <v>4.0</v>
       </c>
       <c r="C50" t="n" s="314">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D50" t="n" s="315">
         <v>4.0</v>
       </c>
       <c r="E50" t="n" s="316">
-        <v>49.0</v>
+        <v>10228.0</v>
       </c>
       <c r="F50" t="n" s="317">
         <v>3.0</v>
       </c>
       <c r="G50" t="n" s="318">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="H50" t="n" s="319">
         <v>21.0</v>
       </c>
       <c r="I50" t="n" s="320">
-        <v>-0.3652430958294442</v>
+        <v>-0.5710388437252585</v>
       </c>
       <c r="J50" t="n" s="321">
-        <v>0.6328197884518687</v>
+        <v>0.4862275628588453</v>
       </c>
       <c r="K50" t="n" s="322">
-        <v>0.8217021569900878</v>
+        <v>0.689183738953538</v>
       </c>
     </row>
     <row r="51">
@@ -8580,31 +8580,31 @@
         <v>5.0</v>
       </c>
       <c r="C51" t="n" s="314">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="D51" t="n" s="315">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="E51" t="n" s="316">
-        <v>50.0</v>
+        <v>10230.0</v>
       </c>
       <c r="F51" t="n" s="317">
         <v>3.0</v>
       </c>
       <c r="G51" t="n" s="318">
-        <v>15.0</v>
+        <v>19.0</v>
       </c>
       <c r="H51" t="n" s="319">
         <v>21.0</v>
       </c>
       <c r="I51" t="n" s="320">
-        <v>0.8582958727581459</v>
+        <v>1.0956641887062777</v>
       </c>
       <c r="J51" t="n" s="321">
-        <v>0.6057745225651342</v>
+        <v>0.6707620446869234</v>
       </c>
       <c r="K51" t="n" s="322">
-        <v>0.8217021569900878</v>
+        <v>0.689183738953538</v>
       </c>
     </row>
     <row r="52">
@@ -8612,34 +8612,34 @@
         <v>10231.0</v>
       </c>
       <c r="B52" t="n" s="313">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="C52" t="n" s="314">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="D52" t="n" s="315">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="E52" t="n" s="316">
-        <v>51.0</v>
+        <v>10231.0</v>
       </c>
       <c r="F52" t="n" s="317">
         <v>3.0</v>
       </c>
       <c r="G52" t="n" s="318">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="H52" t="n" s="319">
         <v>21.0</v>
       </c>
       <c r="I52" t="n" s="320">
-        <v>-1.7069950271721703</v>
+        <v>-0.3246338035754203</v>
       </c>
       <c r="J52" t="n" s="321">
-        <v>0.561571215376438</v>
+        <v>0.4969685627088814</v>
       </c>
       <c r="K52" t="n" s="322">
-        <v>0.8217021569900878</v>
+        <v>0.689183738953538</v>
       </c>
     </row>
     <row r="53">
@@ -8647,34 +8647,34 @@
         <v>10232.0</v>
       </c>
       <c r="B53" t="n" s="313">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="C53" t="n" s="314">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="D53" t="n" s="315">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="E53" t="n" s="316">
-        <v>52.0</v>
+        <v>10232.0</v>
       </c>
       <c r="F53" t="n" s="317">
         <v>3.0</v>
       </c>
       <c r="G53" t="n" s="318">
-        <v>16.0</v>
+        <v>14.0</v>
       </c>
       <c r="H53" t="n" s="319">
         <v>21.0</v>
       </c>
       <c r="I53" t="n" s="320">
-        <v>1.1968122044955534</v>
+        <v>-0.3246338035754203</v>
       </c>
       <c r="J53" t="n" s="321">
-        <v>0.6048293089260062</v>
+        <v>0.4969685627088814</v>
       </c>
       <c r="K53" t="n" s="322">
-        <v>0.8217021569900878</v>
+        <v>0.689183738953538</v>
       </c>
     </row>
     <row r="54">
@@ -8682,34 +8682,34 @@
         <v>10233.0</v>
       </c>
       <c r="B54" t="n" s="313">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="C54" t="n" s="314">
+        <v>6.0</v>
+      </c>
+      <c r="D54" t="n" s="315">
         <v>4.0</v>
       </c>
-      <c r="D54" t="n" s="315">
-        <v>2.0</v>
-      </c>
       <c r="E54" t="n" s="316">
-        <v>53.0</v>
+        <v>10233.0</v>
       </c>
       <c r="F54" t="n" s="317">
         <v>3.0</v>
       </c>
       <c r="G54" t="n" s="318">
-        <v>7.0</v>
+        <v>14.0</v>
       </c>
       <c r="H54" t="n" s="319">
         <v>21.0</v>
       </c>
       <c r="I54" t="n" s="320">
-        <v>-1.9941110897819814</v>
+        <v>-0.3246338035754203</v>
       </c>
       <c r="J54" t="n" s="321">
-        <v>0.576074819348327</v>
+        <v>0.4969685627088814</v>
       </c>
       <c r="K54" t="n" s="322">
-        <v>0.8217021569900878</v>
+        <v>0.689183738953538</v>
       </c>
     </row>
     <row r="55">
@@ -8717,34 +8717,34 @@
         <v>10234.0</v>
       </c>
       <c r="B55" t="n" s="313">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="C55" t="n" s="314">
         <v>4.0</v>
       </c>
       <c r="D55" t="n" s="315">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="E55" t="n" s="316">
-        <v>54.0</v>
+        <v>10234.0</v>
       </c>
       <c r="F55" t="n" s="317">
         <v>3.0</v>
       </c>
       <c r="G55" t="n" s="318">
-        <v>9.0</v>
+        <v>12.0</v>
       </c>
       <c r="H55" t="n" s="319">
         <v>21.0</v>
       </c>
       <c r="I55" t="n" s="320">
-        <v>-1.4199599680554051</v>
+        <v>-0.8071144506354305</v>
       </c>
       <c r="J55" t="n" s="321">
-        <v>0.5632875865523973</v>
+        <v>0.4733642248680837</v>
       </c>
       <c r="K55" t="n" s="322">
-        <v>0.8217021569900878</v>
+        <v>0.689183738953538</v>
       </c>
     </row>
     <row r="56">
@@ -8752,7 +8752,7 @@
         <v>10237.0</v>
       </c>
       <c r="B56" t="n" s="313">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C56" t="n" s="314">
         <v>5.0</v>
@@ -8761,25 +8761,25 @@
         <v>5.0</v>
       </c>
       <c r="E56" t="n" s="316">
-        <v>55.0</v>
+        <v>10237.0</v>
       </c>
       <c r="F56" t="n" s="317">
         <v>3.0</v>
       </c>
       <c r="G56" t="n" s="318">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="H56" t="n" s="319">
         <v>21.0</v>
       </c>
       <c r="I56" t="n" s="320">
-        <v>0.49845433044713733</v>
+        <v>-0.07604771059156139</v>
       </c>
       <c r="J56" t="n" s="321">
-        <v>0.6197029280292287</v>
+        <v>0.5075823220691572</v>
       </c>
       <c r="K56" t="n" s="322">
-        <v>0.8217021569900878</v>
+        <v>0.689183738953538</v>
       </c>
     </row>
     <row r="57">
@@ -8793,28 +8793,28 @@
         <v>5.0</v>
       </c>
       <c r="D57" t="n" s="315">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="E57" t="n" s="316">
-        <v>56.0</v>
+        <v>10238.0</v>
       </c>
       <c r="F57" t="n" s="317">
         <v>3.0</v>
       </c>
       <c r="G57" t="n" s="318">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="H57" t="n" s="319">
         <v>21.0</v>
       </c>
       <c r="I57" t="n" s="320">
-        <v>0.8582958727581459</v>
+        <v>0.1758193737030996</v>
       </c>
       <c r="J57" t="n" s="321">
-        <v>0.6057745225651342</v>
+        <v>0.5227683856600855</v>
       </c>
       <c r="K57" t="n" s="322">
-        <v>0.8217021569900878</v>
+        <v>0.689183738953538</v>
       </c>
     </row>
     <row r="58">
@@ -8822,34 +8822,34 @@
         <v>10240.0</v>
       </c>
       <c r="B58" t="n" s="313">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="C58" t="n" s="314">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="D58" t="n" s="315">
         <v>2.0</v>
       </c>
       <c r="E58" t="n" s="316">
-        <v>57.0</v>
+        <v>10240.0</v>
       </c>
       <c r="F58" t="n" s="317">
         <v>3.0</v>
       </c>
       <c r="G58" t="n" s="318">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="H58" t="n" s="319">
         <v>21.0</v>
       </c>
       <c r="I58" t="n" s="320">
-        <v>-1.7069950271721703</v>
+        <v>-1.4088093079634896</v>
       </c>
       <c r="J58" t="n" s="321">
-        <v>0.561571215376438</v>
+        <v>0.4474400482350821</v>
       </c>
       <c r="K58" t="n" s="322">
-        <v>0.8217021569900878</v>
+        <v>0.689183738953538</v>
       </c>
     </row>
     <row r="59">
@@ -8860,31 +8860,31 @@
         <v>1.0</v>
       </c>
       <c r="C59" t="n" s="314">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="D59" t="n" s="315">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="E59" t="n" s="316">
-        <v>58.0</v>
+        <v>10242.0</v>
       </c>
       <c r="F59" t="n" s="317">
         <v>3.0</v>
       </c>
       <c r="G59" t="n" s="318">
-        <v>3.0</v>
+        <v>12.0</v>
       </c>
       <c r="H59" t="n" s="319">
         <v>21.0</v>
       </c>
       <c r="I59" t="n" s="320">
-        <v>-4.437860808491842</v>
+        <v>-0.8071144506354305</v>
       </c>
       <c r="J59" t="n" s="321">
-        <v>1.495126684381312</v>
+        <v>0.4733642248680837</v>
       </c>
       <c r="K59" t="n" s="322">
-        <v>0.8217021569900878</v>
+        <v>0.689183738953538</v>
       </c>
     </row>
   </sheetData>
